--- a/1137372539/localisation/excel/production_l_german.xlsx
+++ b/1137372539/localisation/excel/production_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="680">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve"> PRODUCTION_ADJUSTERS_LABEL:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Einstellgeräte</t>
+    <t xml:space="preserve">Geländemodifikatoren</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_MATERIALS_LABEL:0</t>
@@ -136,103 +136,19 @@
     <t xml:space="preserve"> PRODUCTION_PRODUCING_DAILY:0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AMOUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$/Tag</t>
-    </r>
+    <t xml:space="preserve">$AMOUNT$/Tag</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_PRODUCING_WEEKLY:0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AMOUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$/Woche</t>
-    </r>
+    <t xml:space="preserve">$AMOUNT$/Woche</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_PRODUCING_MONTHLY:0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AMOUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$/Monat</t>
-    </r>
+    <t xml:space="preserve">$AMOUNT$/Monat</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_PRODUCING_YEARLY:0</t>
@@ -367,6 +283,12 @@
     <t xml:space="preserve">§Mangel an Ressourcen: $AMOUNT|R2%$§!</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_RESOURCE_PENALTY_WITH_MIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§TMangel an Ressourcen: $AMOUNT|R2%$§! ($FROM_MIO$)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_ASSIGN_EQUIPMENT:0</t>
   </si>
   <si>
@@ -394,7 +316,7 @@
     <t xml:space="preserve"> PRODUCTION_MATERIALS_CHROMIUM:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chrom</t>
+    <t xml:space="preserve">Legierungsmetalle</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_MATERIALS_STEEL:0</t>
@@ -409,6 +331,30 @@
     <t xml:space="preserve">Wolfram</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_BAUXITE:0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauxit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_IRON:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_COAL:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_FOOD:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahrung</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_MATERIALS_SHIPYARD_CAPITAL:0</t>
   </si>
   <si>
@@ -424,7 +370,22 @@
     <t xml:space="preserve"> PRODUCTION_MATERIALS_TANK_PRODUCTION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Tank-Produktionskapazität</t>
+    <t xml:space="preserve">Panzer-Produktionskapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_ARTILLERY_PRODUCTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artillerie-Produktionskapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_MATERIALS_ENGINE_PRODUCTION:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorproduktionskapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil:</t>
   </si>
   <si>
     <t xml:space="preserve"> rubber:</t>
@@ -442,34 +403,160 @@
     <t xml:space="preserve"> chromium:</t>
   </si>
   <si>
+    <t xml:space="preserve">iron:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bauxite:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil_desc:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für den effektiven Betrieb von Kraftfahrzeugen, Flugzeugen und Schiffen wird Öl benötigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aluminium_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium ist wichtig für den Bau von Spezialfahrzeugen und Flugzeugen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubber_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gummi ist für den Bau der meisten Fahrzeuge wichtig. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tungsten_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfram ist ein seltenes Hartmetall, das hauptsächlich für Panzerabwehrmunition, aber auch für Maschinenwerkzeuge und Spezialteile verwendet wird. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stahl ist das Hauptmetall für die meisten Arten von Militärmaschinen, egal ob Panzer oder Schiffe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromium_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legierungsmetalle werden in speziellen Maschinenelementen oder zur Verbesserung der Stahlproduktion verwendet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisen ist der Rohstoff, aus dem Stahl veredelt wird. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coal_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohle wird zum Antrieb von Zügen und Kraftwerken sowie zur Raffinierung von Stahl und synthetischem Kraftstoff verwendet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bauxite_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauxit ist der Rohstoff, aus dem Aluminium raffiniert wird. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">food_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahrung wird von der Bevölkerung und dem Militär konsumiert. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipyard_capital_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Großkampschiffswerftenkapazität stellt die großen Anlagen und Werften dar, die für die Produktion von Großkampfschiffen und Träger erforderlich sind. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tank_production_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panzerproduktionskapazität stellt die Anlagen zur Herstellung und Montage von gepanzerten Fahrzeugen wie Panzern, gepanzerten Fahrzeugen und mechanisierten Fahrzeugen dar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">air_production_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftproduktionskapazität stellt die Einrichtungen zur Herstellung und Montage von Flugzeugen dar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">artillery_production_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Artillerie-Produktionskapazität stellt die Anlagen zur Herstellung und Montage großkalibriger Kanonen, Geschütze und Haubitzen dar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">engine_production_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Triebwerksproduktionskapazität stellt die Anlagen zur Herstellung und Montage von Triebwerken für Landfahrzeuge und Flugzeuge dar. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> RUBBER_ICON:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ressourcen_Streifen|3</t>
+    <t xml:space="preserve">£resources_strip|3</t>
   </si>
   <si>
     <t xml:space="preserve"> ALUMINIUM_ICON:</t>
   </si>
   <si>
-    <t xml:space="preserve">£Ressourcen_Streifen|2</t>
+    <t xml:space="preserve">£resources_strip|2</t>
   </si>
   <si>
     <t xml:space="preserve"> TUNGSTEN_ICON:</t>
   </si>
   <si>
-    <t xml:space="preserve">£Ressourcen_Streifen|4</t>
+    <t xml:space="preserve">£resources_strip|4</t>
   </si>
   <si>
     <t xml:space="preserve"> STEEL_ICON:</t>
   </si>
   <si>
-    <t xml:space="preserve">£Ressourcen_Streifen|5</t>
+    <t xml:space="preserve">£resources_strip|5</t>
   </si>
   <si>
     <t xml:space="preserve"> CHROMIUM_ICON:</t>
   </si>
   <si>
-    <t xml:space="preserve">ressourcen_streifen|6</t>
+    <t xml:space="preserve">£resources_strip|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUXITE_ICON:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£resources_strip|7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL_ICON:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£resources_strip|8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRON_ICON:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£resources_strip|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOD_ICON:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£resources_strip|10</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_MATERIAL_VAL:0</t>
@@ -574,6 +661,12 @@
     <t xml:space="preserve">§HConsumer Goods§!</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_CONSUMER_GOODS_DESC:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With our current Economic Policy, the people expect $PERCENTAGE|H0%$ of our $TOTAL_FACTORIES|H$ Civilian and Military Factories to produce Consumer Goods. This need is filled by our $GENERAL_FACTORIES|H$ Civilian Factories, leaving us with $OPERATIONAL|H$ factories where $TRADE_USABLE|H$ can be used for trade.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_CONSUMER_GOODS_DESC:1</t>
   </si>
   <si>
@@ -586,6 +679,24 @@
     <t xml:space="preserve">Zivile und militärische Fabriken: $KEY|H$</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_CONSUMER_GOODS_FACTORIES_BASE_EXPECTATION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grunderwartung:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CONSUMER_GOODS_FACTORIES_FACTOR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktoren:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CONSUMER_GOODS_FACTORIES_FACTORS_MULTIPLIED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktoren miteinander multipliziert: $PERCENTAGE|H0%$</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_REQ_CONSUMER_GOODS_FACTORIES:0</t>
   </si>
   <si>
@@ -871,46 +982,6 @@
     <t xml:space="preserve">$AMOUNT|Y$ unserer Militärfabriken sind Spenden von den Exilregierungen, die wir beherbergen.</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_AVAILABLE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verfügbar für den Bau: $VALUE|Y$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_CURRENTLY:0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Im Einsatz: $</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VALUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|R$</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> PRODUCTION_MAX_EFFICIENCY_BASE:0</t>
   </si>
   <si>
@@ -935,6 +1006,12 @@
     <t xml:space="preserve">§HResources per factory to produce:§!</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_RESOURCE_COST:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$VALUE$</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_MATERIAL_NO_WASTE:0</t>
   </si>
   <si>
@@ -980,7 +1057,7 @@
     <t xml:space="preserve"> INDUSTRIAL_PROGRESS_REPAIR:0</t>
   </si>
   <si>
-    <t xml:space="preserve">$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%0H$</t>
+    <t xml:space="preserve">$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%1H$</t>
   </si>
   <si>
     <t xml:space="preserve"> INDUSTRIAL_BASE_FACTORY_OUTPUT:0</t>
@@ -1007,16 +1084,46 @@
     <t xml:space="preserve">$navprod_cost $VALUE$</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_HEADER:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§HFabriken in Gebrauch§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_TOTAL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt: $VALUE|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_AVAILABLE:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicht verwendet: $VALUE|Y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_CURRENTLY:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Gebrauch: $VALUE|R$</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_OWNED:0</t>
   </si>
   <si>
     <t xml:space="preserve">Eigene: $VAL|H$</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_BORROWED:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von Exporten: +$VAL|H$</t>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_FROM_TRADE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handelsexporte: §G+$VAL$§!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_FROM_LICENSES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizenzexporte: §G+$VAL$§!</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_FROM_SUBJECTS:0</t>
@@ -1031,6 +1138,12 @@
     <t xml:space="preserve">An Overlord gegeben: $VAL|R$</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_FROM_OCCUPATION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus besetzen Ländern: §G+$VAL$§!</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_FROM_OTHERS:0</t>
   </si>
   <si>
@@ -1043,6 +1156,18 @@
     <t xml:space="preserve">An andere Länder gegeben: $VAL|R$</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_TRADE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handelsimporte: $VAL|R$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_LICENSES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizenzimporte: $VAL|R$</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_CIVILIAN_FACTORIES_DAMAGED:0</t>
   </si>
   <si>
@@ -1052,35 +1177,7 @@
     <t xml:space="preserve"> PRODUCTION_EQUIPMENT_TOTAL_NEED:2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VALUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|0Y$</t>
-    </r>
+    <t xml:space="preserve">$VALUE|0Y$</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_EQUIPMENT_TOTAL_NEED_FILLED:1</t>
@@ -1203,7 +1300,7 @@
     <t xml:space="preserve"> PRODUCTION_EFFICIENCY_GAIN_BASE:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Täglicher Basisgewinn: $VAL|%Y$</t>
+    <t xml:space="preserve">Täglicher Basisgewinn: $VAL|%Y3$</t>
   </si>
   <si>
     <t xml:space="preserve"> PRODUCTION_RESOURCE_FACTOR:0</t>
@@ -1212,6 +1309,12 @@
     <t xml:space="preserve">Mangel an Ressourcen: $VAL|%+$</t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUCTION_RESOURCE_FACTOR_WITH_MIO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangel an Ressourcen: $VAL|%+$ ($FROM_MIO$)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRODUCTION_OUTPUT_EXPLAIN:0</t>
   </si>
   <si>
@@ -1903,6 +2006,60 @@
   </si>
   <si>
     <t xml:space="preserve">Nur Ausrüstungen mit der Rolle $ROLE|H$ anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_COST_MODIFIERS: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Y£production_cost£Produktionskosten geändert durch:§! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION_COST_MODIFIER_ITEM: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$REASON$: $VALUE|-%$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_COST_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionskosten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_CAPACITY_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionsleistung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_EFFICIENCY_CAP_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionseffizienzobergrenze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_EFFICIENCY_GAIN_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionseffizienzgewinn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_RESOURCE_NEED_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionsressourcenbedarf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_RESOURCE_PENALTY_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionsressourcenstrafe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS_PRODUCTION_CONVERSION_SPEED_FACTOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktionskonvertierungsgeschwindigkeit</t>
   </si>
 </sst>
 </file>
@@ -1942,10 +2099,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1990,7 +2148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2001,6 +2159,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2024,18 +2186,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="83.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,11 +2221,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> PRODUCTION_PRODUCTION_LABEL:0 "Produktion"</v>
+        <v>PRODUCTION_PRODUCTION_LABEL:0 "Produktion"</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> PRODUCTION_PRODUCTION_LABEL:0 "Produktion"</v>
+        <v>PRODUCTION_PRODUCTION_LABEL:0 "Produktion"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,11 +2237,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENTPOOL_LABEL:0 "Lagerung"</v>
+        <v>PRODUCTION_EQUIPMENTPOOL_LABEL:0 "Lagerung"</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> PRODUCTION_EQUIPMENTPOOL_LABEL:0 "Lagerung"</v>
+        <v>PRODUCTION_EQUIPMENTPOOL_LABEL:0 "Lagerung"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,11 +2253,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY_LABEL:0 "§Tefficiency§!"</v>
+        <v>PRODUCTION_EFFICIENCY_LABEL:0 "§Tefficiency§!"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> PRODUCTION_EFFICIENCY_LABEL:0 "§Tefficiency§!"</v>
+        <v>PRODUCTION_EFFICIENCY_LABEL:0 "§Tefficiency§!"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,11 +2269,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_LABEL:0 "Ausrüstung"</v>
+        <v>PRODUCTION_EQUIPMENT_LABEL:0 "Ausrüstung"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> PRODUCTION_EQUIPMENT_LABEL:0 "Ausrüstung"</v>
+        <v>PRODUCTION_EQUIPMENT_LABEL:0 "Ausrüstung"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,11 +2285,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> PRODUCTION_ADJUSTERS_LABEL:0 "Einstellgeräte"</v>
+        <v>PRODUCTION_ADJUSTERS_LABEL:0 "Geländemodifikatoren"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> PRODUCTION_ADJUSTERS_LABEL:0 "Einstellgeräte"</v>
+        <v>PRODUCTION_ADJUSTERS_LABEL:0 "Geländemodifikatoren"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,11 +2301,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_LABEL:0 "Werkstoffe"</v>
+        <v>PRODUCTION_MATERIALS_LABEL:0 "Werkstoffe"</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> PRODUCTION_MATERIALS_LABEL:0 "Werkstoffe"</v>
+        <v>PRODUCTION_MATERIALS_LABEL:0 "Werkstoffe"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,11 +2317,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> PRODUCTION_FACTORIES_LABEL:0 "Fabriken"</v>
+        <v>PRODUCTION_FACTORIES_LABEL:0 "Fabriken"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> PRODUCTION_FACTORIES_LABEL:0 "Fabriken"</v>
+        <v>PRODUCTION_FACTORIES_LABEL:0 "Fabriken"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,11 +2333,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> PRODUCTION_OPERATIONAL_ARMS_FACTORIES_LABEL:0 "Militärische Fabriken"</v>
+        <v>PRODUCTION_OPERATIONAL_ARMS_FACTORIES_LABEL:0 "Militärische Fabriken"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> PRODUCTION_OPERATIONAL_ARMS_FACTORIES_LABEL:0 "Militärische Fabriken"</v>
+        <v>PRODUCTION_OPERATIONAL_ARMS_FACTORIES_LABEL:0 "Militärische Fabriken"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,11 +2349,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL:0 "Marinewerften"</v>
+        <v>PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL:0 "Marinewerften"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL:0 "Marinewerften"</v>
+        <v>PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL:0 "Marinewerften"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,11 +2365,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> PRODUCTION_OPERATIONAL_FACTORIES_LABEL:0 "Zivile Fabriken"</v>
+        <v>PRODUCTION_OPERATIONAL_FACTORIES_LABEL:0 "Zivile Fabriken"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> PRODUCTION_OPERATIONAL_FACTORIES_LABEL:0 "Zivile Fabriken"</v>
+        <v>PRODUCTION_OPERATIONAL_FACTORIES_LABEL:0 "Zivile Fabriken"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,11 +2381,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL_SHORT:0 "Werften"</v>
+        <v>PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL_SHORT:0 "Werften"</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL_SHORT:0 "Werften"</v>
+        <v>PRODUCTION_OPERATIONAL_DOCKYARDS_LABEL_SHORT:0 "Werften"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,11 +2397,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> PRODUCTION_AVAILABLE_ARMS_FACTORIES_LABEL:0 "Verfügbare Militärfabriken"</v>
+        <v>PRODUCTION_AVAILABLE_ARMS_FACTORIES_LABEL:0 "Verfügbare Militärfabriken"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> PRODUCTION_AVAILABLE_ARMS_FACTORIES_LABEL:0 "Verfügbare Militärfabriken"</v>
+        <v>PRODUCTION_AVAILABLE_ARMS_FACTORIES_LABEL:0 "Verfügbare Militärfabriken"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,11 +2413,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> PRODUCTION_AVAILABLE_DOCKYARDS_LABEL:0 "Verfügbare Marinewerften"</v>
+        <v>PRODUCTION_AVAILABLE_DOCKYARDS_LABEL:0 "Verfügbare Marinewerften"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> PRODUCTION_AVAILABLE_DOCKYARDS_LABEL:0 "Verfügbare Marinewerften"</v>
+        <v>PRODUCTION_AVAILABLE_DOCKYARDS_LABEL:0 "Verfügbare Marinewerften"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,11 +2429,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> PRODUCTION_AVAILABLE_FACTORIES_LABEL:0 "Verfügbare zivile Fabriken"</v>
+        <v>PRODUCTION_AVAILABLE_FACTORIES_LABEL:0 "Verfügbare zivile Fabriken"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> PRODUCTION_AVAILABLE_FACTORIES_LABEL:0 "Verfügbare zivile Fabriken"</v>
+        <v>PRODUCTION_AVAILABLE_FACTORIES_LABEL:0 "Verfügbare zivile Fabriken"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,11 +2445,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> PRODUCTION_OPERATIONAL_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
+        <v>PRODUCTION_OPERATIONAL_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> PRODUCTION_OPERATIONAL_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
+        <v>PRODUCTION_OPERATIONAL_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,11 +2461,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> PRODUCTION_MILITARY_LABEL:0 "§Militär- und Luftwaffenausrüstung§!"</v>
+        <v>PRODUCTION_MILITARY_LABEL:0 "§Militär- und Luftwaffenausrüstung§!"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> PRODUCTION_MILITARY_LABEL:0 "§Militär- und Luftwaffenausrüstung§!"</v>
+        <v>PRODUCTION_MILITARY_LABEL:0 "§Militär- und Luftwaffenausrüstung§!"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,11 +2477,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_LABEL:0 "§TMarineausrüstung§!"</v>
+        <v>PRODUCTION_NAVAL_LABEL:0 "§TMarineausrüstung§!"</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> PRODUCTION_NAVAL_LABEL:0 "§TMarineausrüstung§!"</v>
+        <v>PRODUCTION_NAVAL_LABEL:0 "§TMarineausrüstung§!"</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,11 +2493,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> PRODUCTION_BUILDINGS_LABEL:0 "§Gebäudebau§!"</v>
+        <v>PRODUCTION_BUILDINGS_LABEL:0 "§Gebäudebau§!"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> PRODUCTION_BUILDINGS_LABEL:0 "§Gebäudebau§!"</v>
+        <v>PRODUCTION_BUILDINGS_LABEL:0 "§Gebäudebau§!"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,11 +2509,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_DAILY:0 "$AMOUNT$/Tag"</v>
+        <v>PRODUCTION_PRODUCING_DAILY:0 "$AMOUNT$/Tag"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> PRODUCTION_PRODUCING_DAILY:0 "$AMOUNT$/Tag"</v>
+        <v>PRODUCTION_PRODUCING_DAILY:0 "$AMOUNT$/Tag"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,11 +2525,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_WEEKLY:0 "$AMOUNT$/Woche"</v>
+        <v>PRODUCTION_PRODUCING_WEEKLY:0 "$AMOUNT$/Woche"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> PRODUCTION_PRODUCING_WEEKLY:0 "$AMOUNT$/Woche"</v>
+        <v>PRODUCTION_PRODUCING_WEEKLY:0 "$AMOUNT$/Woche"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,11 +2541,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_MONTHLY:0 "$AMOUNT$/Monat"</v>
+        <v>PRODUCTION_PRODUCING_MONTHLY:0 "$AMOUNT$/Monat"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> PRODUCTION_PRODUCING_MONTHLY:0 "$AMOUNT$/Monat"</v>
+        <v>PRODUCTION_PRODUCING_MONTHLY:0 "$AMOUNT$/Monat"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,11 +2557,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_YEARLY:0 "$AMOUNT$/Jahr"</v>
+        <v>PRODUCTION_PRODUCING_YEARLY:0 "$AMOUNT$/Jahr"</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> PRODUCTION_PRODUCING_YEARLY:0 "$AMOUNT$/Jahr"</v>
+        <v>PRODUCTION_PRODUCING_YEARLY:0 "$AMOUNT$/Jahr"</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,11 +2573,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_ETA_DATE:0 "Nächste Fertigstellung: $DATE$"</v>
+        <v>PRODUCTION_PRODUCING_ETA_DATE:0 "Nächste Fertigstellung: $DATE$"</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> PRODUCTION_PRODUCING_ETA_DATE:0 "Nächste Fertigstellung: $DATE$"</v>
+        <v>PRODUCTION_PRODUCING_ETA_DATE:0 "Nächste Fertigstellung: $DATE$"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,11 +2589,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> PRODUCTION_REPAIRING_ETA_DATE:0 "Wiederherstellung abgeschlossen: $DATE$"</v>
+        <v>PRODUCTION_REPAIRING_ETA_DATE:0 "Wiederherstellung abgeschlossen: $DATE$"</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> PRODUCTION_REPAIRING_ETA_DATE:0 "Wiederherstellung abgeschlossen: $DATE$"</v>
+        <v>PRODUCTION_REPAIRING_ETA_DATE:0 "Wiederherstellung abgeschlossen: $DATE$"</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,11 +2605,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_ETA_DAYS:0 "In $AMOUNT$ Tagen"</v>
+        <v>PRODUCTION_PRODUCING_ETA_DAYS:0 "In $AMOUNT$ Tagen"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> PRODUCTION_PRODUCING_ETA_DAYS:0 "In $AMOUNT$ Tagen"</v>
+        <v>PRODUCTION_PRODUCING_ETA_DAYS:0 "In $AMOUNT$ Tagen"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,11 +2621,11 @@
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_ETA_WEEKS:0 "In $AMOUNT$ Wochen"</v>
+        <v>PRODUCTION_PRODUCING_ETA_WEEKS:0 "In $AMOUNT$ Wochen"</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> PRODUCTION_PRODUCING_ETA_WEEKS:0 "In $AMOUNT$ Wochen"</v>
+        <v>PRODUCTION_PRODUCING_ETA_WEEKS:0 "In $AMOUNT$ Wochen"</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,11 +2637,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_ETA_MONTHS:0 "In $AMOUNT$ Monaten"</v>
+        <v>PRODUCTION_PRODUCING_ETA_MONTHS:0 "In $AMOUNT$ Monaten"</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> PRODUCTION_PRODUCING_ETA_MONTHS:0 "In $AMOUNT$ Monaten"</v>
+        <v>PRODUCTION_PRODUCING_ETA_MONTHS:0 "In $AMOUNT$ Monaten"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,11 +2653,11 @@
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_ETA_YEARS:0 "In $AMOUNT$ Jahren"</v>
+        <v>PRODUCTION_PRODUCING_ETA_YEARS:0 "In $AMOUNT$ Jahren"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> PRODUCTION_PRODUCING_ETA_YEARS:0 "In $AMOUNT$ Jahren"</v>
+        <v>PRODUCTION_PRODUCING_ETA_YEARS:0 "In $AMOUNT$ Jahren"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,11 +2669,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_NEVER:1 "§RNever§!"</v>
+        <v>PRODUCTION_PRODUCING_NEVER:1 "§RNever§!"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> PRODUCTION_PRODUCING_NEVER:1 "§RNever§!"</v>
+        <v>PRODUCTION_PRODUCING_NEVER:1 "§RNever§!"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,11 +2685,11 @@
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> PRODUCTION_REPAIRING_PAUSED_NAVAL_TRANSFER:0 "Reparaturen werden derzeit pausiert, solange sich die Einheit im Marinetransfer befindet."</v>
+        <v>PRODUCTION_REPAIRING_PAUSED_NAVAL_TRANSFER:0 "Reparaturen werden derzeit pausiert, solange sich die Einheit im Marinetransfer befindet."</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> PRODUCTION_REPAIRING_PAUSED_NAVAL_TRANSFER:0 "Reparaturen werden derzeit pausiert, solange sich die Einheit im Marinetransfer befindet."</v>
+        <v>PRODUCTION_REPAIRING_PAUSED_NAVAL_TRANSFER:0 "Reparaturen werden derzeit pausiert, solange sich die Einheit im Marinetransfer befindet."</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,11 +2701,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_NO_FACTORIES:0 "§RNo factories assigned§!"</v>
+        <v>PRODUCTION_PRODUCING_NO_FACTORIES:0 "§RNo factories assigned§!"</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> PRODUCTION_PRODUCING_NO_FACTORIES:0 "§RNo factories assigned§!"</v>
+        <v>PRODUCTION_PRODUCING_NO_FACTORIES:0 "§RNo factories assigned§!"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,11 +2717,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> PRODUCTION_PRODUCING_NONE:0 "§RNone§!"</v>
+        <v>PRODUCTION_PRODUCING_NONE:0 "§RNone§!"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> PRODUCTION_PRODUCING_NONE:0 "§RNone§!"</v>
+        <v>PRODUCTION_PRODUCING_NONE:0 "§RNone§!"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,11 +2733,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY:0 "§RCannot deploy§!"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY:0 "§RCannot deploy§!"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY:0 "§RCannot deploy§!"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY:0 "§RCannot deploy§!"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,11 +2749,11 @@
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY_MANPOWER:0 "Unzureichende Arbeitskräfte"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY_MANPOWER:0 "Unzureichende Arbeitskräfte"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY_MANPOWER:0 "Unzureichende Arbeitskräfte"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY_MANPOWER:0 "Unzureichende Arbeitskräfte"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,11 +2765,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY_NO_CAPITAL:0 "Capital Inaccessible"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY_NO_CAPITAL:0 "Capital Inaccessible"</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> PRODUCTION_CAN_NOT_DEPLOY_NO_CAPITAL:0 "Capital Inaccessible"</v>
+        <v>PRODUCTION_CAN_NOT_DEPLOY_NO_CAPITAL:0 "Capital Inaccessible"</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,11 +2781,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> PRODUCTION_INCREASE_PRIORITY_LABEL:0 "§GKlicken Sie auf §Höhere Priorität§!.\nShift+Klicken Sie, um der Produktion §Höchste Priorität§! zu geben!"</v>
+        <v>PRODUCTION_INCREASE_PRIORITY_LABEL:0 "§GKlicken Sie auf §Höhere Priorität§!.\nShift+Klicken Sie, um der Produktion §Höchste Priorität§! zu geben!"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> PRODUCTION_INCREASE_PRIORITY_LABEL:0 "§GKlicken Sie auf §Höhere Priorität§!.\nShift+Klicken Sie, um der Produktion §Höchste Priorität§! zu geben!"</v>
+        <v>PRODUCTION_INCREASE_PRIORITY_LABEL:0 "§GKlicken Sie auf §Höhere Priorität§!.\nShift+Klicken Sie, um der Produktion §Höchste Priorität§! zu geben!"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,11 +2797,11 @@
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> PRODUCTION_DECREASE_PRIORITY_LABEL:0 "§Klicken Sie auf §Herabsetzen der Priorität§!.\nUmschalt+Klick, um der Produktion §Niedrigste Priorität§!.§ zu geben."</v>
+        <v>PRODUCTION_DECREASE_PRIORITY_LABEL:0 "§Klicken Sie auf §Herabsetzen der Priorität§!.\nUmschalt+Klick, um der Produktion §Niedrigste Priorität§!.§ zu geben."</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> PRODUCTION_DECREASE_PRIORITY_LABEL:0 "§Klicken Sie auf §Herabsetzen der Priorität§!.\nUmschalt+Klick, um der Produktion §Niedrigste Priorität§!.§ zu geben."</v>
+        <v>PRODUCTION_DECREASE_PRIORITY_LABEL:0 "§Klicken Sie auf §Herabsetzen der Priorität§!.\nUmschalt+Klick, um der Produktion §Niedrigste Priorität§!.§ zu geben."</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,11 +2813,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> PRODUCTION_PRIORITY_DELAYED:0 "Eine Produktionslinie mit höherer Priorität erhält Zugang zu Ressourcen vor Produktionslinien mit niedrigerer Priorität."</v>
+        <v>PRODUCTION_PRIORITY_DELAYED:0 "Eine Produktionslinie mit höherer Priorität erhält Zugang zu Ressourcen vor Produktionslinien mit niedrigerer Priorität."</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> PRODUCTION_PRIORITY_DELAYED:0 "Eine Produktionslinie mit höherer Priorität erhält Zugang zu Ressourcen vor Produktionslinien mit niedrigerer Priorität."</v>
+        <v>PRODUCTION_PRIORITY_DELAYED:0 "Eine Produktionslinie mit höherer Priorität erhält Zugang zu Ressourcen vor Produktionslinien mit niedrigerer Priorität."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,11 +2829,11 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§!"</v>
+        <v>PRODUCTION_EFFICIENCY:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§!"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> PRODUCTION_EFFICIENCY:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§!"</v>
+        <v>PRODUCTION_EFFICIENCY:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§!"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,11 +2845,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY_MOD:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|Y2%$§!\n"</v>
+        <v>PRODUCTION_EFFICIENCY_MOD:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|Y2%$§!\n"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> PRODUCTION_EFFICIENCY_MOD:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|Y2%$§!\n"</v>
+        <v>PRODUCTION_EFFICIENCY_MOD:0 "£prod_eff §TProduktionseffizienz: $AMOUNT|Y2%$§!\n"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,11 +2861,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY_WITH_GAIN:2 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§! ($GAIN|H3%$ pro Tag)"</v>
+        <v>PRODUCTION_EFFICIENCY_WITH_GAIN:2 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§! ($GAIN|H3%$ pro Tag)"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> PRODUCTION_EFFICIENCY_WITH_GAIN:2 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§! ($GAIN|H3%$ pro Tag)"</v>
+        <v>PRODUCTION_EFFICIENCY_WITH_GAIN:2 "£prod_eff §TProduktionseffizienz: $AMOUNT|H2%$§! ($GAIN|H3%$ pro Tag)"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,11 +2877,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY_DESC:0 "§TAverage Factory Production Efficiency.\nProduction Efficiency Increases by $VALUE|H=2$%/unit produced split evenly on active Factories.§!"</v>
+        <v>PRODUCTION_EFFICIENCY_DESC:0 "§TAverage Factory Production Efficiency.\nProduction Efficiency Increases by $VALUE|H=2$%/unit produced split evenly on active Factories.§!"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> PRODUCTION_EFFICIENCY_DESC:0 "§TAverage Factory Production Efficiency.\nProduction Efficiency Increases by $VALUE|H=2$%/unit produced split evenly on active Factories.§!"</v>
+        <v>PRODUCTION_EFFICIENCY_DESC:0 "§TAverage Factory Production Efficiency.\nProduction Efficiency Increases by $VALUE|H=2$%/unit produced split evenly on active Factories.§!"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,11 +2893,11 @@
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> PRODUCTION_RESOURCE_PENALTY:0 "§Mangel an Ressourcen: $AMOUNT|R2%$§!"</v>
+        <v>PRODUCTION_RESOURCE_PENALTY:0 "§Mangel an Ressourcen: $AMOUNT|R2%$§!"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> PRODUCTION_RESOURCE_PENALTY:0 "§Mangel an Ressourcen: $AMOUNT|R2%$§!"</v>
+        <v>PRODUCTION_RESOURCE_PENALTY:0 "§Mangel an Ressourcen: $AMOUNT|R2%$§!"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,11 +2909,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> PRODUCTION_ASSIGN_EQUIPMENT:0 "§TAssign Ausrüstung um Produktion zu starten.§!"</v>
+        <v>PRODUCTION_RESOURCE_PENALTY_WITH_MIO "§TMangel an Ressourcen: $AMOUNT|R2%$§! ($FROM_MIO$)"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> PRODUCTION_ASSIGN_EQUIPMENT:0 "§TAssign Ausrüstung um Produktion zu starten.§!"</v>
+        <v>PRODUCTION_RESOURCE_PENALTY_WITH_MIO "§TMangel an Ressourcen: $AMOUNT|R2%$§! ($FROM_MIO$)"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,11 +2925,11 @@
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_OIL:0 "Öl"</v>
+        <v>PRODUCTION_ASSIGN_EQUIPMENT:0 "§TAssign Ausrüstung um Produktion zu starten.§!"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> PRODUCTION_MATERIALS_OIL:0 "Öl"</v>
+        <v>PRODUCTION_ASSIGN_EQUIPMENT:0 "§TAssign Ausrüstung um Produktion zu starten.§!"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,11 +2941,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_ALUMINIUM:0 "Aluminium"</v>
+        <v>PRODUCTION_MATERIALS_OIL:0 "Öl"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> PRODUCTION_MATERIALS_ALUMINIUM:0 "Aluminium"</v>
+        <v>PRODUCTION_MATERIALS_OIL:0 "Öl"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,11 +2957,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_RUBBER:0 "Gummi"</v>
+        <v>PRODUCTION_MATERIALS_ALUMINIUM:0 "Aluminium"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> PRODUCTION_MATERIALS_RUBBER:0 "Gummi"</v>
+        <v>PRODUCTION_MATERIALS_ALUMINIUM:0 "Aluminium"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,11 +2973,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_CHROMIUM:0 "Chrom"</v>
+        <v>PRODUCTION_MATERIALS_RUBBER:0 "Gummi"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> PRODUCTION_MATERIALS_CHROMIUM:0 "Chrom"</v>
+        <v>PRODUCTION_MATERIALS_RUBBER:0 "Gummi"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,11 +2989,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_STEEL:0 "Stahl"</v>
+        <v>PRODUCTION_MATERIALS_CHROMIUM:0 "Legierungsmetalle"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> PRODUCTION_MATERIALS_STEEL:0 "Stahl"</v>
+        <v>PRODUCTION_MATERIALS_CHROMIUM:0 "Legierungsmetalle"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,11 +3005,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_TUNGSTEN:0 "Wolfram"</v>
+        <v>PRODUCTION_MATERIALS_STEEL:0 "Stahl"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> PRODUCTION_MATERIALS_TUNGSTEN:0 "Wolfram"</v>
+        <v>PRODUCTION_MATERIALS_STEEL:0 "Stahl"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,11 +3021,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_SHIPYARD_CAPITAL:0 "Kapital Werftkapazität"</v>
+        <v>PRODUCTION_MATERIALS_TUNGSTEN:0 "Wolfram"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> PRODUCTION_MATERIALS_SHIPYARD_CAPITAL:0 "Kapital Werftkapazität"</v>
+        <v>PRODUCTION_MATERIALS_TUNGSTEN:0 "Wolfram"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,11 +3037,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_AIR_PRODUCTION:0 "Luftproduktionskapazität"</v>
+        <v>PRODUCTION_MATERIALS_BAUXITE:0  "Bauxit"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> PRODUCTION_MATERIALS_AIR_PRODUCTION:0 "Luftproduktionskapazität"</v>
+        <v>PRODUCTION_MATERIALS_BAUXITE:0  "Bauxit"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,4145 +3053,4717 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> PRODUCTION_MATERIALS_TANK_PRODUCTION:0 "Tank-Produktionskapazität"</v>
+        <v>PRODUCTION_MATERIALS_IRON:0 "Eisen"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> PRODUCTION_MATERIALS_TANK_PRODUCTION:0 "Tank-Produktionskapazität"</v>
+        <v>PRODUCTION_MATERIALS_IRON:0 "Eisen"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_MATERIALS_COAL:0 "Kohle"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v/>
+        <v>PRODUCTION_MATERIALS_COAL:0 "Kohle"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> rubber: "Gummi"</v>
+        <v>PRODUCTION_MATERIALS_FOOD:0 "Nahrung"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> rubber: "Gummi"</v>
+        <v>PRODUCTION_MATERIALS_FOOD:0 "Nahrung"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> tungsten: "Wolfram"</v>
+        <v>PRODUCTION_MATERIALS_SHIPYARD_CAPITAL:0 "Kapital Werftkapazität"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> tungsten: "Wolfram"</v>
+        <v>PRODUCTION_MATERIALS_SHIPYARD_CAPITAL:0 "Kapital Werftkapazität"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> aluminium: "Aluminium"</v>
+        <v>PRODUCTION_MATERIALS_AIR_PRODUCTION:0 "Luftproduktionskapazität"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> aluminium: "Aluminium"</v>
+        <v>PRODUCTION_MATERIALS_AIR_PRODUCTION:0 "Luftproduktionskapazität"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> steel: "Stahl"</v>
+        <v>PRODUCTION_MATERIALS_TANK_PRODUCTION:0 "Panzer-Produktionskapazität"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> steel: "Stahl"</v>
+        <v>PRODUCTION_MATERIALS_TANK_PRODUCTION:0 "Panzer-Produktionskapazität"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> chromium: "Chrom"</v>
+        <v>PRODUCTION_MATERIALS_ARTILLERY_PRODUCTION:0 "Artillerie-Produktionskapazität"</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> chromium: "Chrom"</v>
+        <v>PRODUCTION_MATERIALS_ARTILLERY_PRODUCTION:0 "Artillerie-Produktionskapazität"</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_MATERIALS_ENGINE_PRODUCTION:0 "Motorproduktionskapazität"</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v/>
+        <v>PRODUCTION_MATERIALS_ENGINE_PRODUCTION:0 "Motorproduktionskapazität"</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> RUBBER_ICON: "Ressourcen_Streifen|3"</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> RUBBER_ICON: "Ressourcen_Streifen|3"</v>
-      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> ALUMINIUM_ICON: "£Ressourcen_Streifen|2"</v>
+        <v>oil: "Öl"</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> ALUMINIUM_ICON: "£Ressourcen_Streifen|2"</v>
+        <v>oil: "Öl"</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> TUNGSTEN_ICON: "£Ressourcen_Streifen|4"</v>
+        <v>rubber: "Gummi"</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> TUNGSTEN_ICON: "£Ressourcen_Streifen|4"</v>
+        <v>rubber: "Gummi"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> STEEL_ICON: "£Ressourcen_Streifen|5"</v>
+        <v>tungsten: "Wolfram"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> STEEL_ICON: "£Ressourcen_Streifen|5"</v>
+        <v>tungsten: "Wolfram"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> CHROMIUM_ICON: "ressourcen_streifen|6"</v>
+        <v>aluminium: "Aluminium"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> CHROMIUM_ICON: "ressourcen_streifen|6"</v>
+        <v>aluminium: "Aluminium"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v>""</v>
+        <v>steel: "Stahl"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v/>
+        <v>steel: "Stahl"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> PRODUCTION_MATERIAL_VAL:0 "$VALUE|0H$"</v>
+        <v>chromium: "Legierungsmetalle"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> PRODUCTION_MATERIAL_VAL:0 "$VALUE|0H$"</v>
+        <v>chromium: "Legierungsmetalle"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> PRODUCTION_VEHICLES_BUTTON:0 "Gepanzerte Fahrzeuge bauen"</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> PRODUCTION_VEHICLES_BUTTON:0 "Gepanzerte Fahrzeuge bauen"</v>
-      </c>
+        <v>iron: "Eisen"</v>
+      </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> PRODUCTION_VEHICLES_BUTTON_DISABLED:0 "Gepanzerte Fahrzeuge sind §Rnicht entwickelt worden§!"</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> PRODUCTION_VEHICLES_BUTTON_DISABLED:0 "Gepanzerte Fahrzeuge sind §Rnicht entwickelt worden§!"</v>
-      </c>
+        <v>coal: "Kohle"</v>
+      </c>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> PRODUCTION_VEHICLES_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine militärischen Fabriken!§!"</v>
-      </c>
-      <c r="D71" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> PRODUCTION_VEHICLES_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine militärischen Fabriken!§!"</v>
-      </c>
+        <v>bauxite: "Bauxit"</v>
+      </c>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> PRODUCTION_INFANTRY_BUTTON:0 "Infanterie- und Artillerieausrüstung bauen"</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> PRODUCTION_INFANTRY_BUTTON:0 "Infanterie- und Artillerieausrüstung bauen"</v>
-      </c>
+        <v>food: "Nahrung"</v>
+      </c>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> PRODUCTION_INFANTRY_BUTTON_DISABLED:0 "Infanterie- und Artillerieausrüstung wurde §Rnicht entwickelt§!"</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> PRODUCTION_INFANTRY_BUTTON_DISABLED:0 "Infanterie- und Artillerieausrüstung wurde §Rnicht entwickelt§!"</v>
-      </c>
+        <v>oil_desc:1 "Für den effektiven Betrieb von Kraftfahrzeugen, Flugzeugen und Schiffen wird Öl benötigt."</v>
+      </c>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> PRODUCTION_INFANTRY_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine militärischen Fabriken!§!"</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> PRODUCTION_INFANTRY_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine militärischen Fabriken!§!"</v>
-      </c>
+        <v>aluminium_desc:0 "Aluminium ist wichtig für den Bau von Spezialfahrzeugen und Flugzeugen. "</v>
+      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON:0 "Bau von Flugzeugen"</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON:0 "Bau von Flugzeugen"</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>rubber_desc:0 "Gummi ist für den Bau der meisten Fahrzeuge wichtig. "</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON_DISABLED:0 "Flugzeuge wurden §Rnicht entwickelt§!!"</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON_DISABLED:0 "Flugzeuge wurden §Rnicht entwickelt§!!"</v>
-      </c>
+        <v>tungsten_desc:0 "Wolfram ist ein seltenes Hartmetall, das hauptsächlich für Panzerabwehrmunition, aber auch für Maschinenwerkzeuge und Spezialteile verwendet wird. "</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine Militärfabriken§!!"</v>
-      </c>
-      <c r="D77" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> PRODUCTION_AIRCRAFT_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine Militärfabriken§!!"</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>steel_desc:0 "Stahl ist das Hauptmetall für die meisten Arten von Militärmaschinen, egal ob Panzer oder Schiffe. "</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> PRODUCTION_SHIPS_BUTTON:0 "Bau von Schiffen"</v>
-      </c>
-      <c r="D78" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> PRODUCTION_SHIPS_BUTTON:0 "Bau von Schiffen"</v>
-      </c>
+        <v>chromium_desc:0 "Legierungsmetalle werden in speziellen Maschinenelementen oder zur Verbesserung der Stahlproduktion verwendet. "</v>
+      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> PRODUCTION_SHIPS_BUTTON_DISABLED:0 "Schiffe wurden §nicht entwickelt§!!"</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> PRODUCTION_SHIPS_BUTTON_DISABLED:0 "Schiffe wurden §nicht entwickelt§!!"</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>iron_desc:0 "Eisen ist der Rohstoff, aus dem Stahl veredelt wird. "</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> PRODUCTION_SHIPS_BUTTON_NO_DEPLOY_DISABLED:0 "Wir haben §Rkeine Häfen§!!"</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> PRODUCTION_SHIPS_BUTTON_NO_DEPLOY_DISABLED:0 "Wir haben §Rkeine Häfen§!!"</v>
-      </c>
+        <v>coal_desc:0 "Kohle wird zum Antrieb von Zügen und Kraftwerken sowie zur Raffinierung von Stahl und synthetischem Kraftstoff verwendet. "</v>
+      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> PRODUCTION_SHIPS_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine Werften§!!"</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> PRODUCTION_SHIPS_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine Werften§!!"</v>
-      </c>
+        <v>bauxite_desc:0 "Bauxit ist der Rohstoff, aus dem Aluminium raffiniert wird. "</v>
+      </c>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> PRODUCTION_CONSUMER_GOODS_VALUE:0 "$WERT$"</v>
-      </c>
-      <c r="D82" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> PRODUCTION_CONSUMER_GOODS_VALUE:0 "$WERT$"</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>food_desc:0 "Nahrung wird von der Bevölkerung und dem Militär konsumiert. "</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> PRODUCTION_CONSUMER_GOODS:0 "Konsumgüter"</v>
-      </c>
-      <c r="D83" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> PRODUCTION_CONSUMER_GOODS:0 "Konsumgüter"</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>shipyard_capital_desc:0 "Großkampschiffswerftenkapazität stellt die großen Anlagen und Werften dar, die für die Produktion von Großkampfschiffen und Träger erforderlich sind. "</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> PRODUCTION_CONSUMER_GOODS_LABEL:0 "§HConsumer Goods§!"</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> PRODUCTION_CONSUMER_GOODS_LABEL:0 "§HConsumer Goods§!"</v>
-      </c>
+        <v>tank_production_desc:0 "Panzerproduktionskapazität stellt die Anlagen zur Herstellung und Montage von gepanzerten Fahrzeugen wie Panzern, gepanzerten Fahrzeugen und mechanisierten Fahrzeugen dar. "</v>
+      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> PRODUCTION_CONSUMER_GOODS_DESC:1 "Bei unserer derzeitigen Wirtschaftspolitik erwarten die Menschen, dass $PERCENTAGE|H0%$ unserer Anzahl von zivilen und militärischen Fabriken Konsumgüter produzieren. Dieser Bedarf wird nur durch zivile Fabriken gedeckt, so dass $OPERATIONAL|H$ Fabriken übrig bleiben, die $TRADE_USABLE|H$ für den Handel genutzt werden können."</v>
-      </c>
-      <c r="D85" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> PRODUCTION_CONSUMER_GOODS_DESC:1 "Bei unserer derzeitigen Wirtschaftspolitik erwarten die Menschen, dass $PERCENTAGE|H0%$ unserer Anzahl von zivilen und militärischen Fabriken Konsumgüter produzieren. Dieser Bedarf wird nur durch zivile Fabriken gedeckt, so dass $OPERATIONAL|H$ Fabriken übrig bleiben, die $TRADE_USABLE|H$ für den Handel genutzt werden können."</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>air_production_desc:0 "Luftproduktionskapazität stellt die Einrichtungen zur Herstellung und Montage von Flugzeugen dar. "</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> PRODUCTION_CIV_AND_MIL_FACTORIES:0 "Zivile und militärische Fabriken: $KEY|H$"</v>
-      </c>
-      <c r="D86" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A86),"",C86)</f>
-        <v> PRODUCTION_CIV_AND_MIL_FACTORIES:0 "Zivile und militärische Fabriken: $KEY|H$"</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>artillery_production_desc:0 "Die Artillerie-Produktionskapazität stellt die Anlagen zur Herstellung und Montage großkalibriger Kanonen, Geschütze und Haubitzen dar. "</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> PRODUCTION_REQ_CONSUMER_GOODS_FACTORIES:0 "Erforderliche Konsumgüterfabriken: $KEY|H$"</v>
-      </c>
-      <c r="D87" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v> PRODUCTION_REQ_CONSUMER_GOODS_FACTORIES:0 "Erforderliche Konsumgüterfabriken: $KEY|H$"</v>
-      </c>
+        <v>engine_production_desc:0 "Die Triebwerksproduktionskapazität stellt die Anlagen zur Herstellung und Montage von Triebwerken für Landfahrzeuge und Flugzeuge dar. "</v>
+      </c>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> PRODUCTION_MATERIAL_COST_DESC:0 "§TDiese Produktionslinie verbraucht $AMOUNT|0H$ Einheiten von $MATERIAL|H$.§!"</v>
+        <v>""</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> PRODUCTION_MATERIAL_COST_DESC:0 "§TDiese Produktionslinie verbraucht $AMOUNT|0H$ Einheiten von $MATERIAL|H$.§!"</v>
+        <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> PRODUCTION_MATERIAL_COST_LACKING_DESC:2 "§T$AMOUNT|0H$ mehr Einheiten werden für volle Effizienz benötigt.§!\nDie Produktion wird mit §Reduzierter Geschwindigkeit§! fortgesetzt."</v>
+        <v>RUBBER_ICON: "£resources_strip|3"</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> PRODUCTION_MATERIAL_COST_LACKING_DESC:2 "§T$AMOUNT|0H$ mehr Einheiten werden für volle Effizienz benötigt.§!\nDie Produktion wird mit §Reduzierter Geschwindigkeit§! fortgesetzt."</v>
+        <v>RUBBER_ICON: "£resources_strip|3"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> PRODUCTION_LINE_CANCEL:4 "§GKlick§! zum §Rückgängigmachen§! dieser Produktionslinie.\n§GShift+Klick§! zum §Rückgängigmachen§! aller Produktionslinien."</v>
+        <v>ALUMINIUM_ICON: "£resources_strip|2"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> PRODUCTION_LINE_CANCEL:4 "§GKlick§! zum §Rückgängigmachen§! dieser Produktionslinie.\n§GShift+Klick§! zum §Rückgängigmachen§! aller Produktionslinien."</v>
+        <v>ALUMINIUM_ICON: "£resources_strip|2"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> PRODUCTION_LINE_CANCEL_SHIP_REFIT:1 "§GKlick§! auf §RScuttle§! dieses Schiff, das gerade überholt wird."</v>
+        <v>TUNGSTEN_ICON: "£resources_strip|4"</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v> PRODUCTION_LINE_CANCEL_SHIP_REFIT:1 "§GKlick§! auf §RScuttle§! dieses Schiff, das gerade überholt wird."</v>
+        <v>TUNGSTEN_ICON: "£resources_strip|4"</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> PRODUCTION_CREATE_VARIANT:0 "§HCreate variant§!"</v>
+        <v>STEEL_ICON: "£resources_strip|5"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> PRODUCTION_CREATE_VARIANT:0 "§HCreate variant§!"</v>
+        <v>STEEL_ICON: "£resources_strip|5"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> PRODUCTION_CANCEL_CONSTRUCTION:0 "§TCancel this construction§!"</v>
+        <v>CHROMIUM_ICON: "£resources_strip|6"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> PRODUCTION_CANCEL_CONSTRUCTION:0 "§TCancel this construction§!"</v>
+        <v>CHROMIUM_ICON: "£resources_strip|6"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_YES:1 "Wieder in Betrieb nehmen"</v>
+        <v>BAUXITE_ICON: "£resources_strip|7"</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_YES:1 "Wieder in Betrieb nehmen"</v>
+        <v>BAUXITE_ICON: "£resources_strip|7"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_NO:1 "Außerbetriebnahme"</v>
+        <v>COAL_ICON: "£resources_strip|8"</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_NO:1 "Außerbetriebnahme"</v>
+        <v>COAL_ICON: "£resources_strip|8"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_YES_DESC:0 "§GKlick§! um diese Variante wieder in Betrieb zu nehmen und sie als aktuelle Ausrüstung zu kennzeichnen."</v>
+        <v>IRON_ICON: "£resources_strip|9"</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_YES_DESC:0 "§GKlick§! um diese Variante wieder in Betrieb zu nehmen und sie als aktuelle Ausrüstung zu kennzeichnen."</v>
+        <v>IRON_ICON: "£resources_strip|9"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_NO_DESC:0 "§GKlick§! um diese Variante außer Betrieb zu nehmen und sie als veraltetes Gerät zu kennzeichnen."</v>
+        <v>FOOD_ICON: "£resources_strip|10"</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> PRODUCTION_VARIANT_OBSOLETE_NO_DESC:0 "§GKlick§! um diese Variante außer Betrieb zu nehmen und sie als veraltetes Gerät zu kennzeichnen."</v>
+        <v>FOOD_ICON: "£resources_strip|10"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> TRADE_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
+        <v>""</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> TRADE_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
+        <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> CONFIRMCANCELPRODUCTIONLINE_TITLE:0 "Produktionslinie abbrechen"</v>
+        <v>PRODUCTION_MATERIAL_VAL:0 "$VALUE|0H$"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> CONFIRMCANCELPRODUCTIONLINE_TITLE:0 "Produktionslinie abbrechen"</v>
+        <v>PRODUCTION_MATERIAL_VAL:0 "$VALUE|0H$"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> CONFIRMCANCELPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie diese Produktionslinie §Rcancel§! stornieren möchten?"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON:0 "Gepanzerte Fahrzeuge bauen"</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> CONFIRMCANCELPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie diese Produktionslinie §Rcancel§! stornieren möchten?"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON:0 "Gepanzerte Fahrzeuge bauen"</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> CONFIRMCANCELALLPRODUCTIONLINE_TITLE:0 "Alle Linien stornieren"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON_DISABLED:0 "Gepanzerte Fahrzeuge sind §Rnicht entwickelt worden§!"</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> CONFIRMCANCELALLPRODUCTIONLINE_TITLE:0 "Alle Linien stornieren"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON_DISABLED:0 "Gepanzerte Fahrzeuge sind §Rnicht entwickelt worden§!"</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> CONFIRMCANCELALLPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Produktionslinien stornieren wollen?"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine militärischen Fabriken!§!"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> CONFIRMCANCELALLPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Produktionslinien stornieren wollen?"</v>
+        <v>PRODUCTION_VEHICLES_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine militärischen Fabriken!§!"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> CONFIRM_SWITCH_PRODUCTION_MODEL_TITLE:0 "Ausrüstung wechseln"</v>
+        <v>PRODUCTION_INFANTRY_BUTTON:0 "Infanterie- und Artillerieausrüstung bauen"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> CONFIRM_SWITCH_PRODUCTION_MODEL_TITLE:0 "Ausrüstung wechseln"</v>
+        <v>PRODUCTION_INFANTRY_BUTTON:0 "Infanterie- und Artillerieausrüstung bauen"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> CONFIRM_SWITCH_PRODUCTION_MODEL_DESC:0 "Sind Sie sicher, dass Sie §Rwechseln§! Ausrüstung wechseln? Dadurch verlieren Sie $DAYS|R$ Tage der Produktion."</v>
+        <v>PRODUCTION_INFANTRY_BUTTON_DISABLED:0 "Infanterie- und Artillerieausrüstung wurde §Rnicht entwickelt§!"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> CONFIRM_SWITCH_PRODUCTION_MODEL_DESC:0 "Sind Sie sicher, dass Sie §Rwechseln§! Ausrüstung wechseln? Dadurch verlieren Sie $DAYS|R$ Tage der Produktion."</v>
+        <v>PRODUCTION_INFANTRY_BUTTON_DISABLED:0 "Infanterie- und Artillerieausrüstung wurde §Rnicht entwickelt§!"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> CONFIRMCANCELCONSTRUCTION_TITLE:0 "Konstruktion abbrechen"</v>
+        <v>PRODUCTION_INFANTRY_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine militärischen Fabriken!§!"</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> CONFIRMCANCELCONSTRUCTION_TITLE:0 "Konstruktion abbrechen"</v>
+        <v>PRODUCTION_INFANTRY_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine militärischen Fabriken!§!"</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> CONFIRMCANCELCONSTRUCTION_DESC:0 "Sind Sie sicher, dass Sie den Bau von $CONSTRUCTION|H$ in $REGION|H$ §Rcancel§! abbrechen wollen?"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON:0 "Bau von Flugzeugen"</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> CONFIRMCANCELCONSTRUCTION_DESC:0 "Sind Sie sicher, dass Sie den Bau von $CONSTRUCTION|H$ in $REGION|H$ §Rcancel§! abbrechen wollen?"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON:0 "Bau von Flugzeugen"</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> CONFIRMCANCELCONSTRUCTION_RAILWAY_DESC:0 "Sind Sie sicher, dass Sie den Bau der Eisenbahn $NAME|H$ §Rcancel§!"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON_DISABLED:0 "Flugzeuge wurden §Rnicht entwickelt§!!"</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> CONFIRMCANCELCONSTRUCTION_RAILWAY_DESC:0 "Sind Sie sicher, dass Sie den Bau der Eisenbahn $NAME|H$ §Rcancel§!"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON_DISABLED:0 "Flugzeuge wurden §Rnicht entwickelt§!!"</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> CONFIRMCANCELCONSTRUCTIONS_TITLE:0 "Bauvorhaben stornieren"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine Militärfabriken§!!"</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> CONFIRMCANCELCONSTRUCTIONS_TITLE:0 "Bauvorhaben stornieren"</v>
+        <v>PRODUCTION_AIRCRAFT_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §keine Militärfabriken§!!"</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> CONFIRMCANCELCONSTRUCTIONS_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Konstruktionen stornieren wollen?"</v>
+        <v>PRODUCTION_SHIPS_BUTTON:0 "Bau von Schiffen"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> CONFIRMCANCELCONSTRUCTIONS_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Konstruktionen stornieren wollen?"</v>
+        <v>PRODUCTION_SHIPS_BUTTON:0 "Bau von Schiffen"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> INFINITY:0 "£infinity_icon"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_DISABLED:0 "Schiffe wurden §nicht entwickelt§!!"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> INFINITY:0 "£infinity_icon"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_DISABLED:0 "Schiffe wurden §nicht entwickelt§!!"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_NEED:0 "Brauchen: $AMOUNT|Y$"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_NO_DEPLOY_DISABLED:0 "Wir haben §Rkeine Häfen§!!"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> PRODUCTION_EQUIPMENT_NEED:0 "Brauchen: $AMOUNT|Y$"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_NO_DEPLOY_DISABLED:0 "Wir haben §Rkeine Häfen§!!"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> PRODUCTION_DEPLOY_TO_BASE:0 "Einsatz im Hafen: $BASE|H$"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine Werften§!!"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> PRODUCTION_DEPLOY_TO_BASE:0 "Einsatz im Hafen: $BASE|H$"</v>
+        <v>PRODUCTION_SHIPS_BUTTON_NO_FACTORIES_DISABLED:0 "Wir haben §Rkeine Werften§!!"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> PRODUCTION_DEPLOY_TO_FLEET:1 "Einsatz im Einsatzverband: $FLEET|H$"</v>
+        <v>PRODUCTION_CONSUMER_GOODS_VALUE:0 "$WERT$"</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> PRODUCTION_DEPLOY_TO_FLEET:1 "Einsatz im Einsatzverband: $FLEET|H$"</v>
+        <v>PRODUCTION_CONSUMER_GOODS_VALUE:0 "$WERT$"</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> PRODUCTION_DEPLOY_TO_RESERVE_FLEET_THEATER:1 "Einsatz in der Reserve des Theaters: $THEATER|H$"</v>
+        <v>PRODUCTION_CONSUMER_GOODS:0 "Konsumgüter"</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> PRODUCTION_DEPLOY_TO_RESERVE_FLEET_THEATER:1 "Einsatz in der Reserve des Theaters: $THEATER|H$"</v>
+        <v>PRODUCTION_CONSUMER_GOODS:0 "Konsumgüter"</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_FLEET_INVALID_BASE:0 "Einsatzziel $FLEET|H$ hat keine Basis."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_LABEL:0 "§HConsumer Goods§!"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_FLEET_INVALID_BASE:0 "Einsatzziel $FLEET|H$ hat keine Basis."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_LABEL:0 "§HConsumer Goods§!"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_FLEET:1 "Einsatzziel Flotte $FLEET|H$ mit Stützpunkt in $STATE|H$."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_DESC:1 "With our current Economic Policy, the people expect $PERCENTAGE|H0%$ of our $TOTAL_FACTORIES|H$ Civilian and Military Factories to produce Consumer Goods. This need is filled by our $GENERAL_FACTORIES|H$ Civilian Factories, leaving us with $OPERATIONAL|H$ factories where $TRADE_USABLE|H$ can be used for trade."</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_FLEET:1 "Einsatzziel Flotte $FLEET|H$ mit Stützpunkt in $STATE|H$."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_DESC:1 "With our current Economic Policy, the people expect $PERCENTAGE|H0%$ of our $TOTAL_FACTORIES|H$ Civilian and Military Factories to produce Consumer Goods. This need is filled by our $GENERAL_FACTORIES|H$ Civilian Factories, leaving us with $OPERATIONAL|H$ factories where $TRADE_USABLE|H$ can be used for trade."</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_THEATER:0 "Einsatzziel Theater $THEATER|H$ mit Basis in $STATE|H$."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_DESC:1 "Bei unserer derzeitigen Wirtschaftspolitik erwarten die Menschen, dass $PERCENTAGE|H0%$ unserer Anzahl von zivilen und militärischen Fabriken Konsumgüter produzieren. Dieser Bedarf wird nur durch zivile Fabriken gedeckt, so dass $OPERATIONAL|H$ Fabriken übrig bleiben, die $TRADE_USABLE|H$ für den Handel genutzt werden können."</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_THEATER:0 "Einsatzziel Theater $THEATER|H$ mit Basis in $STATE|H$."</v>
+        <v>PRODUCTION_CONSUMER_GOODS_DESC:1 "Bei unserer derzeitigen Wirtschaftspolitik erwarten die Menschen, dass $PERCENTAGE|H0%$ unserer Anzahl von zivilen und militärischen Fabriken Konsumgüter produzieren. Dieser Bedarf wird nur durch zivile Fabriken gedeckt, so dass $OPERATIONAL|H$ Fabriken übrig bleiben, die $TRADE_USABLE|H$ für den Handel genutzt werden können."</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_BASE:0 "Einsatzziel Basis in $STATE|H$."</v>
+        <v>PRODUCTION_CIV_AND_MIL_FACTORIES:0 "Zivile und militärische Fabriken: $KEY|H$"</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_BASE:0 "Einsatzziel Basis in $STATE|H$."</v>
+        <v>PRODUCTION_CIV_AND_MIL_FACTORIES:0 "Zivile und militärische Fabriken: $KEY|H$"</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" s="1" t="str">
-        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_INVALID_BASE:0 "Kein Einsatzziel gesetzt."</v>
-      </c>
-      <c r="D119" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_INVALID_BASE:0 "Kein Einsatzziel gesetzt."</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_NOT_DEPLOYABLE:0 "Nicht verteilbar"</v>
-      </c>
-      <c r="D120" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_NOT_DEPLOYABLE:0 "Nicht verteilbar"</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C121" s="1" t="str">
-        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_AUTO_DEPLOYMENT:0 "Automatisch"</v>
-      </c>
-      <c r="D121" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_AUTO_DEPLOYMENT:0 "Automatisch"</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING:0 "Verschrotten"</v>
+        <v>PRODUCTION_REQ_CONSUMER_GOODS_FACTORIES:0 "Erforderliche Konsumgüterfabriken: $KEY|H$"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING:0 "Verschrotten"</v>
+        <v>PRODUCTION_REQ_CONSUMER_GOODS_FACTORIES:0 "Erforderliche Konsumgüterfabriken: $KEY|H$"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING_DESC:0 "Keine gültige Basis zum Verteilen. Die Einheit wird nach Fertigstellung verschrottet."</v>
+        <v>PRODUCTION_MATERIAL_COST_DESC:0 "§TDiese Produktionslinie verbraucht $AMOUNT|0H$ Einheiten von $MATERIAL|H$.§!"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING_DESC:0 "Keine gültige Basis zum Verteilen. Die Einheit wird nach Fertigstellung verschrottet."</v>
+        <v>PRODUCTION_MATERIAL_COST_DESC:0 "§TDiese Produktionslinie verbraucht $AMOUNT|0H$ Einheiten von $MATERIAL|H$.§!"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_STOCKPILING:0 "Vorratshaltung"</v>
+        <v>PRODUCTION_MATERIAL_COST_LACKING_DESC:2 "§T$AMOUNT|0H$ mehr Einheiten werden für volle Effizienz benötigt.§!\nDie Produktion wird mit §Reduzierter Geschwindigkeit§! fortgesetzt."</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_STOCKPILING:0 "Vorratshaltung"</v>
+        <v>PRODUCTION_MATERIAL_COST_LACKING_DESC:2 "§T$AMOUNT|0H$ mehr Einheiten werden für volle Effizienz benötigt.§!\nDie Produktion wird mit §Reduzierter Geschwindigkeit§! fortgesetzt."</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> PRODUCTION_RIGHT_CLICK_TO_ZOOM:0 "§GRechtsklick um zur Provinz§ zu gelangen!"</v>
+        <v>PRODUCTION_LINE_CANCEL:4 "§GKlick§! zum §Rückgängigmachen§! dieser Produktionslinie.\n§GShift+Klick§! zum §Rückgängigmachen§! aller Produktionslinien."</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v> PRODUCTION_RIGHT_CLICK_TO_ZOOM:0 "§GRechtsklick um zur Provinz§ zu gelangen!"</v>
+        <v>PRODUCTION_LINE_CANCEL:4 "§GKlick§! zum §Rückgängigmachen§! dieser Produktionslinie.\n§GShift+Klick§! zum §Rückgängigmachen§! aller Produktionslinien."</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOY_LIST:0 "Ziel des Einsatzes"</v>
+        <v>PRODUCTION_LINE_CANCEL_SHIP_REFIT:1 "§GKlick§! auf §RScuttle§! dieses Schiff, das gerade überholt wird."</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v> PRODUCTION_NAVAL_DEPLOY_LIST:0 "Ziel des Einsatzes"</v>
+        <v>PRODUCTION_LINE_CANCEL_SHIP_REFIT:1 "§GKlick§! auf §RScuttle§! dieses Schiff, das gerade überholt wird."</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> WEEKLY_PRODUCTION:0 "Wöchentliche Produktion"</v>
+        <v>PRODUCTION_CREATE_VARIANT:0 "§HCreate variant§!"</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v> WEEKLY_PRODUCTION:0 "Wöchentliche Produktion"</v>
+        <v>PRODUCTION_CREATE_VARIANT:0 "§HCreate variant§!"</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> PRODUCTION_WORKING_FACTORIES:0 "Dies ist die Anzahl der Fabriken, die derzeit an einer Ihrer Produktionslinien arbeiten."</v>
+        <v>PRODUCTION_CANCEL_CONSTRUCTION:0 "§TCancel this construction§!"</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> PRODUCTION_WORKING_FACTORIES:0 "Dies ist die Anzahl der Fabriken, die derzeit an einer Ihrer Produktionslinien arbeiten."</v>
+        <v>PRODUCTION_CANCEL_CONSTRUCTION:0 "§TCancel this construction§!"</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> PRODUCTION_WORKING_DOCKYARDS:0 "Dies ist die Anzahl der Werften, die zur Zeit an einer Ihrer Produktionslinien arbeiten."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_YES:1 "Wieder in Betrieb nehmen"</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v> PRODUCTION_WORKING_DOCKYARDS:0 "Dies ist die Anzahl der Werften, die zur Zeit an einer Ihrer Produktionslinien arbeiten."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_YES:1 "Wieder in Betrieb nehmen"</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> PRODUCTION_WORKING_DOCKYARDS_FOR_REPAIRS:0 "Dies ist die Anzahl der Werften, die derzeit für Schiffsreparaturen genutzt werden."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_NO:1 "Außerbetriebnahme"</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> PRODUCTION_WORKING_DOCKYARDS_FOR_REPAIRS:0 "Dies ist die Anzahl der Werften, die derzeit für Schiffsreparaturen genutzt werden."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_NO:1 "Außerbetriebnahme"</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v> PRODICTION_MIC_TRANSFERED:0 "$AMOUNT|Y$ unserer Fabriken werden von $OVERLORD|Y$ genutzt."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_YES_DESC:0 "§GKlick§! um diese Variante wieder in Betrieb zu nehmen und sie als aktuelle Ausrüstung zu kennzeichnen."</v>
       </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
-        <v> PRODICTION_MIC_TRANSFERED:0 "$AMOUNT|Y$ unserer Fabriken werden von $OVERLORD|Y$ genutzt."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_YES_DESC:0 "§GKlick§! um diese Variante wieder in Betrieb zu nehmen und sie als aktuelle Ausrüstung zu kennzeichnen."</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> PRODICTION_MIC_RECEIVED_FROM_SUBJECT:0 "$AMOUNT|Y$ der Militärfabriken werden von unseren Untertanen erhalten."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_NO_DESC:0 "§GKlick§! um diese Variante außer Betrieb zu nehmen und sie als veraltetes Gerät zu kennzeichnen."</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> PRODICTION_MIC_RECEIVED_FROM_SUBJECT:0 "$AMOUNT|Y$ der Militärfabriken werden von unseren Untertanen erhalten."</v>
+        <v>PRODUCTION_VARIANT_OBSOLETE_NO_DESC:0 "§GKlick§! um diese Variante außer Betrieb zu nehmen und sie als veraltetes Gerät zu kennzeichnen."</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> PRODICTION_MIC_SENT_TO_OVERLORD:0 "$AMOUNT|R$ unserer militärischen Fabriken sind an unseren Overlord gegeben, und wir haben nur $LEFT|H$ übrig."</v>
+        <v>TRADE_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> PRODICTION_MIC_SENT_TO_OVERLORD:0 "$AMOUNT|R$ unserer militärischen Fabriken sind an unseren Overlord gegeben, und wir haben nur $LEFT|H$ übrig."</v>
+        <v>TRADE_FACTORIES_VALUE:0 "$VALUE$/$TOT$"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> PRODICTION_MIC_RECEIVED_FROM_EXILE_DONATIONS:0 "$AMOUNT|Y$ unserer Militärfabriken sind Spenden von den Exilregierungen, die wir beherbergen."</v>
+        <v>CONFIRMCANCELPRODUCTIONLINE_TITLE:0 "Produktionslinie abbrechen"</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> PRODICTION_MIC_RECEIVED_FROM_EXILE_DONATIONS:0 "$AMOUNT|Y$ unserer Militärfabriken sind Spenden von den Exilregierungen, die wir beherbergen."</v>
+        <v>CONFIRMCANCELPRODUCTIONLINE_TITLE:0 "Produktionslinie abbrechen"</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_AVAILABLE:0 "Verfügbar für den Bau: $VALUE|Y$"</v>
+        <v>CONFIRMCANCELPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie diese Produktionslinie §Rcancel§! stornieren möchten?"</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_AVAILABLE:0 "Verfügbar für den Bau: $VALUE|Y$"</v>
+        <v>CONFIRMCANCELPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie diese Produktionslinie §Rcancel§! stornieren möchten?"</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_CURRENTLY:0 "Im Einsatz: $VALUE|R$"</v>
+        <v>CONFIRMCANCELALLPRODUCTIONLINE_TITLE:0 "Alle Linien stornieren"</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_CURRENTLY:0 "Im Einsatz: $VALUE|R$"</v>
+        <v>CONFIRMCANCELALLPRODUCTIONLINE_TITLE:0 "Alle Linien stornieren"</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_BASE:0 "Basiskapazität: $VALUE|Y%$"</v>
+        <v>CONFIRMCANCELALLPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Produktionslinien stornieren wollen?"</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_BASE:0 "Basiskapazität: $VALUE|Y%$"</v>
+        <v>CONFIRMCANCELALLPRODUCTIONLINE_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Produktionslinien stornieren wollen?"</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_TOT:0 "£prod_eff_cap Produktionseffizienz-Obergrenze: $VALUE|Y%$"</v>
+        <v>CONFIRM_SWITCH_PRODUCTION_MODEL_TITLE:0 "Ausrüstung wechseln"</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_TOT:0 "£prod_eff_cap Produktionseffizienz-Obergrenze: $VALUE|Y%$"</v>
+        <v>CONFIRM_SWITCH_PRODUCTION_MODEL_TITLE:0 "Ausrüstung wechseln"</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_HINT:0 "£prod_eff_cap Production Efficiency Cap bestimmt den maximalen Wert für Ihre £prod_eff Production Efficiency. Er kann durch £tech_mod Technologien erhöht werden."</v>
+        <v>CONFIRM_SWITCH_PRODUCTION_MODEL_DESC:0 "Sind Sie sicher, dass Sie §Rwechseln§! Ausrüstung wechseln? Dadurch verlieren Sie $DAYS|R$ Tage der Produktion."</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> PRODUCTION_MAX_EFFICIENCY_HINT:0 "£prod_eff_cap Production Efficiency Cap bestimmt den maximalen Wert für Ihre £prod_eff Production Efficiency. Er kann durch £tech_mod Technologien erhöht werden."</v>
+        <v>CONFIRM_SWITCH_PRODUCTION_MODEL_DESC:0 "Sind Sie sicher, dass Sie §Rwechseln§! Ausrüstung wechseln? Dadurch verlieren Sie $DAYS|R$ Tage der Produktion."</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> PRODUCTION_RESOURCES_PER_FACTORY:0 "§HResources per factory to produce:§!"</v>
+        <v>CONFIRMCANCELCONSTRUCTION_TITLE:0 "Konstruktion abbrechen"</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> PRODUCTION_RESOURCES_PER_FACTORY:0 "§HResources per factory to produce:§!"</v>
+        <v>CONFIRMCANCELCONSTRUCTION_TITLE:0 "Konstruktion abbrechen"</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> PRODUCTION_MATERIAL_NO_WASTE:0 "Die Linie verschwendet keine dieser Ressourcen."</v>
+        <v>CONFIRMCANCELCONSTRUCTION_DESC:0 "Sind Sie sicher, dass Sie den Bau von $CONSTRUCTION|H$ in $REGION|H$ §Rcancel§! abbrechen wollen?"</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> PRODUCTION_MATERIAL_NO_WASTE:0 "Die Linie verschwendet keine dieser Ressourcen."</v>
+        <v>CONFIRMCANCELCONSTRUCTION_DESC:0 "Sind Sie sicher, dass Sie den Bau von $CONSTRUCTION|H$ in $REGION|H$ §Rcancel§! abbrechen wollen?"</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> PRODUCTION_MATERIAL_WASTE:0 "Linie verschwendet $WASTE|R2$ dieser Ressource."</v>
+        <v>CONFIRMCANCELCONSTRUCTION_RAILWAY_DESC:0 "Sind Sie sicher, dass Sie den Bau der Eisenbahn $NAME|H$ §Rcancel§!"</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v> PRODUCTION_MATERIAL_WASTE:0 "Linie verschwendet $WASTE|R2$ dieser Ressource."</v>
+        <v>CONFIRMCANCELCONSTRUCTION_RAILWAY_DESC:0 "Sind Sie sicher, dass Sie den Bau der Eisenbahn $NAME|H$ §Rcancel§!"</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> PRODUCTION_SPEED:0 "Produktionsgeschwindigkeit: $SPEED|Y$"</v>
+        <v>CONFIRMCANCELCONSTRUCTIONS_TITLE:0 "Bauvorhaben stornieren"</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> PRODUCTION_SPEED:0 "Produktionsgeschwindigkeit: $SPEED|Y$"</v>
+        <v>CONFIRMCANCELCONSTRUCTIONS_TITLE:0 "Bauvorhaben stornieren"</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> PRODUCTION_SPEED_MODIFIERS:0 "§YProduktionsausstoß geändert durch:§!"</v>
+        <v>CONFIRMCANCELCONSTRUCTIONS_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Konstruktionen stornieren wollen?"</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v> PRODUCTION_SPEED_MODIFIERS:0 "§YProduktionsausstoß geändert durch:§!"</v>
+        <v>CONFIRMCANCELCONSTRUCTIONS_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! alle Konstruktionen stornieren wollen?"</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> INDUSTRIAL_CAPACITY_FACTOR:0 "Fabrik Output: $VALUE|Y$"</v>
+        <v>INFINITY:0 "£infinity_icon"</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v> INDUSTRIAL_CAPACITY_FACTOR:0 "Fabrik Output: $VALUE|Y$"</v>
+        <v>INFINITY:0 "£infinity_icon"</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> INDUSTRIAL_CAPACITY_FACTOR_MODIFIERS:0 "Fabrik-Output modifiziert durch:"</v>
+        <v>PRODUCTION_EQUIPMENT_NEED:0 "Brauchen: $AMOUNT|Y$"</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v> INDUSTRIAL_CAPACITY_FACTOR_MODIFIERS:0 "Fabrik-Output modifiziert durch:"</v>
+        <v>PRODUCTION_EQUIPMENT_NEED:0 "Brauchen: $AMOUNT|Y$"</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> INDUSTRIAL_PROGRESS:0 "$BUILDING|H$ ist $PROGRESS|0H$/$COST|0H$ ( $VALUE|0%H$ ) abgeschlossen."</v>
+        <v>PRODUCTION_DEPLOY_TO_BASE:0 "Einsatz im Hafen: $BASE|H$"</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
-        <v> INDUSTRIAL_PROGRESS:0 "$BUILDING|H$ ist $PROGRESS|0H$/$COST|0H$ ( $VALUE|0%H$ ) abgeschlossen."</v>
+        <v>PRODUCTION_DEPLOY_TO_BASE:0 "Einsatz im Hafen: $BASE|H$"</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> INDUSTRIAL_PROGRESS_REPAIR:0 "$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%0H$"</v>
+        <v>PRODUCTION_DEPLOY_TO_FLEET:1 "Einsatz im Einsatzverband: $FLEET|H$"</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v> INDUSTRIAL_PROGRESS_REPAIR:0 "$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%0H$"</v>
+        <v>PRODUCTION_DEPLOY_TO_FLEET:1 "Einsatz im Einsatzverband: $FLEET|H$"</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> INDUSTRIAL_BASE_FACTORY_OUTPUT:0 "Output der Basisfabrik: $WERT|H$"</v>
+        <v>PRODUCTION_DEPLOY_TO_RESERVE_FLEET_THEATER:1 "Einsatz in der Reserve des Theaters: $THEATER|H$"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> INDUSTRIAL_BASE_FACTORY_OUTPUT:0 "Output der Basisfabrik: $WERT|H$"</v>
+        <v>PRODUCTION_DEPLOY_TO_RESERVE_FLEET_THEATER:1 "Einsatz in der Reserve des Theaters: $THEATER|H$"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> INDUSTRIAL_BASE_SPEED:0 "Output von $FACTORIES|0H$ Fabriken: $VALUE|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_FLEET_INVALID_BASE:0 "Einsatzziel $FLEET|H$ hat keine Basis."</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v> INDUSTRIAL_BASE_SPEED:0 "Output von $FACTORIES|0H$ Fabriken: $VALUE|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_FLEET_INVALID_BASE:0 "Einsatzziel $FLEET|H$ hat keine Basis."</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v> PROD_COST_VALUE:0 "$Produktionskosten $WERT$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_FLEET:1 "Einsatzziel Flotte $FLEET|H$ mit Stützpunkt in $STATE|H$."</v>
       </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
-        <v> PROD_COST_VALUE:0 "$Produktionskosten $WERT$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_FLEET:1 "Einsatzziel Flotte $FLEET|H$ mit Stützpunkt in $STATE|H$."</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> NAVPROD_COST_VALUE:0 "$navprod_cost $VALUE$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_THEATER:0 "Einsatzziel Theater $THEATER|H$ mit Basis in $STATE|H$."</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v> NAVPROD_COST_VALUE:0 "$navprod_cost $VALUE$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_THEATER:0 "Einsatzziel Theater $THEATER|H$ mit Basis in $STATE|H$."</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_OWNED:0 "Eigene: $VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_BASE:0 "Einsatzziel Basis in $STATE|H$."</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_OWNED:0 "Eigene: $VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_BASE:0 "Einsatzziel Basis in $STATE|H$."</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_BORROWED:0 "Von Exporten: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_INVALID_BASE:0 "Kein Einsatzziel gesetzt."</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_BORROWED:0 "Von Exporten: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_INVALID_BASE:0 "Kein Einsatzziel gesetzt."</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_FROM_SUBJECTS:0 "Von Subjekten: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_NOT_DEPLOYABLE:0 "Nicht verteilbar"</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_FROM_SUBJECTS:0 "Von Subjekten: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_NOT_DEPLOYABLE:0 "Nicht verteilbar"</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_MASTER:0 "An Overlord gegeben: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_AUTO_DEPLOYMENT:0 "Automatisch"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_MASTER:0 "An Overlord gegeben: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_AUTO_DEPLOYMENT:0 "Automatisch"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_FROM_OTHERS:0 "Aus anderen Ländern: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING:0 "Verschrotten"</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_FROM_OTHERS:0 "Aus anderen Ländern: +$VAL|H$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING:0 "Verschrotten"</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_OTHERS:0 "An andere Länder gegeben: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING_DESC:0 "Keine gültige Basis zum Verteilen. Die Einheit wird nach Fertigstellung verschrottet."</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_OTHERS:0 "An andere Länder gegeben: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_SCRAPPING_DESC:0 "Keine gültige Basis zum Verteilen. Die Einheit wird nach Fertigstellung verschrottet."</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_DAMAGED:0 "Beschädigt: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_STOCKPILING:0 "Vorratshaltung"</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> PRODUCTION_CIVILIAN_FACTORIES_DAMAGED:0 "Beschädigt: $VAL|R$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_STOCKPILING:0 "Vorratshaltung"</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED:2 "$VALUE|0Y$"</v>
+        <v>PRODUCTION_RIGHT_CLICK_TO_ZOOM:0 "§GRechtsklick um zur Provinz§ zu gelangen!"</v>
       </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED:2 "$VALUE|0Y$"</v>
+        <v>PRODUCTION_RIGHT_CLICK_TO_ZOOM:0 "§GRechtsklick um zur Provinz§ zu gelangen!"</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED_FILLED:1 "$AMOUNT|0G$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOY_LIST:0 "Ziel des Einsatzes"</v>
       </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED_FILLED:1 "$AMOUNT|0G$"</v>
+        <v>PRODUCTION_NAVAL_DEPLOY_LIST:0 "Ziel des Einsatzes"</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED_UPGRADE:1 "$VALUE|0Y$"</v>
+        <v>WEEKLY_PRODUCTION:0 "Wöchentliche Produktion"</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> PRODUCTION_EQUIPMENT_TOTAL_NEED_UPGRADE:1 "$VALUE|0Y$"</v>
+        <v>WEEKLY_PRODUCTION:0 "Wöchentliche Produktion"</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_DAILY_BALANCE:0 "Tagesbilanz: $VALUE|=2Y$"</v>
+        <v>PRODUCTION_WORKING_FACTORIES:0 "Dies ist die Anzahl der Fabriken, die derzeit an einer Ihrer Produktionslinien arbeiten."</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> PRODUCTION_EQUIPMENT_DAILY_BALANCE:0 "Tagesbilanz: $VALUE|=2Y$"</v>
+        <v>PRODUCTION_WORKING_FACTORIES:0 "Dies ist die Anzahl der Fabriken, die derzeit an einer Ihrer Produktionslinien arbeiten."</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_FILL_ESTIMATION:0 "Mit dem aktuellen Tagessaldo werden wir §YFill§! unseren Bedarf in $VALUE|0Y$ Tagen decken."</v>
+        <v>PRODUCTION_WORKING_DOCKYARDS:0 "Dies ist die Anzahl der Werften, die zur Zeit an einer Ihrer Produktionslinien arbeiten."</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> PRODUCTION_EQUIPMENT_FILL_ESTIMATION:0 "Mit dem aktuellen Tagessaldo werden wir §YFill§! unseren Bedarf in $VALUE|0Y$ Tagen decken."</v>
+        <v>PRODUCTION_WORKING_DOCKYARDS:0 "Dies ist die Anzahl der Werften, die zur Zeit an einer Ihrer Produktionslinien arbeiten."</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_FILLED:0 "Unser Bedarf ist §GFilled§! für jetzt."</v>
+        <v>PRODUCTION_WORKING_DOCKYARDS_FOR_REPAIRS:0 "Dies ist die Anzahl der Werften, die derzeit für Schiffsreparaturen genutzt werden."</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> PRODUCTION_EQUIPMENT_FILLED:0 "Unser Bedarf ist §GFilled§! für jetzt."</v>
+        <v>PRODUCTION_WORKING_DOCKYARDS_FOR_REPAIRS:0 "Dies ist die Anzahl der Werften, die derzeit für Schiffsreparaturen genutzt werden."</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_LOSSES:0 "Wir haben gestern $VALUE|R$ Ausrüstung verloren."</v>
+        <v>PRODICTION_MIC_TRANSFERED:0 "$AMOUNT|Y$ unserer Fabriken werden von $OVERLORD|Y$ genutzt."</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> PRODUCTION_EQUIPMENT_LOSSES:0 "Wir haben gestern $VALUE|R$ Ausrüstung verloren."</v>
+        <v>PRODICTION_MIC_TRANSFERED:0 "$AMOUNT|Y$ unserer Fabriken werden von $OVERLORD|Y$ genutzt."</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> PROD_LINE_PLANE_DEST_RESERVES_DUE_TO_MANPOWER:0 "Nach §YReserves§! verschoben, da nicht genügend §HManpower§! für die angeforderten §YReinforcements§!"</v>
+        <v>PRODICTION_MIC_RECEIVED_FROM_SUBJECT:0 "$AMOUNT|Y$ der Militärfabriken werden von unseren Untertanen erhalten."</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> PROD_LINE_PLANE_DEST_RESERVES_DUE_TO_MANPOWER:0 "Nach §YReserves§! verschoben, da nicht genügend §HManpower§! für die angeforderten §YReinforcements§!"</v>
+        <v>PRODICTION_MIC_RECEIVED_FROM_SUBJECT:0 "$AMOUNT|Y$ der Militärfabriken werden von unseren Untertanen erhalten."</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> PROD_LINE_PLANE_DEST_RESERVES:1 "In §YReserven§ verschoben!"</v>
+        <v>PRODICTION_MIC_SENT_TO_OVERLORD:0 "$AMOUNT|R$ unserer militärischen Fabriken sind an unseren Overlord gegeben, und wir haben nur $LEFT|H$ übrig."</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> PROD_LINE_PLANE_DEST_RESERVES:1 "In §YReserven§ verschoben!"</v>
+        <v>PRODICTION_MIC_SENT_TO_OVERLORD:0 "$AMOUNT|R$ unserer militärischen Fabriken sind an unseren Overlord gegeben, und wir haben nur $LEFT|H$ übrig."</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> PROD_LINE_PLANE_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
+        <v>PRODICTION_MIC_RECEIVED_FROM_EXILE_DONATIONS:0 "$AMOUNT|Y$ unserer Militärfabriken sind Spenden von den Exilregierungen, die wir beherbergen."</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> PROD_LINE_PLANE_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
+        <v>PRODICTION_MIC_RECEIVED_FROM_EXILE_DONATIONS:0 "$AMOUNT|Y$ unserer Militärfabriken sind Spenden von den Exilregierungen, die wir beherbergen."</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> PROD_LINE_PLANE_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_BASE:0 "Basiskapazität: $VALUE|Y%$"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> PROD_LINE_PLANE_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_BASE:0 "Basiskapazität: $VALUE|Y%$"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> PROD_LINE_LAND_DEST_RESERVES:1 "Wird §YStockpiled§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_TOT:0 "£prod_eff_cap Produktionseffizienz-Obergrenze: $VALUE|Y%$"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> PROD_LINE_LAND_DEST_RESERVES:1 "Wird §YStockpiled§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_TOT:0 "£prod_eff_cap Produktionseffizienz-Obergrenze: $VALUE|Y%$"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> PROD_LINE_LAND_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_HINT:0 "£prod_eff_cap Production Efficiency Cap bestimmt den maximalen Wert für Ihre £prod_eff Production Efficiency. Er kann durch £tech_mod Technologien erhöht werden."</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> PROD_LINE_LAND_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
+        <v>PRODUCTION_MAX_EFFICIENCY_HINT:0 "£prod_eff_cap Production Efficiency Cap bestimmt den maximalen Wert für Ihre £prod_eff Production Efficiency. Er kann durch £tech_mod Technologien erhöht werden."</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> PROD_LINE_LAND_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
+        <v>PRODUCTION_RESOURCES_PER_FACTORY:0 "§HResources per factory to produce:§!"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> PROD_LINE_LAND_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
+        <v>PRODUCTION_RESOURCES_PER_FACTORY:0 "§HResources per factory to produce:§!"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> CONFIRM_REMOVE_BUILDING_LEVEL_TITLE:0 "Gebäude entfernen"</v>
+        <v>PRODUCTION_RESOURCE_COST: "$VALUE$"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v> CONFIRM_REMOVE_BUILDING_LEVEL_TITLE:0 "Gebäude entfernen"</v>
+        <v>PRODUCTION_RESOURCE_COST: "$VALUE$"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> CONFIRM_REMOVE_BUILDING_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Remove§! entfernen wollen?"</v>
+        <v>PRODUCTION_MATERIAL_NO_WASTE:0 "Die Linie verschwendet keine dieser Ressourcen."</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> CONFIRM_REMOVE_BUILDING_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Remove§! entfernen wollen?"</v>
+        <v>PRODUCTION_MATERIAL_NO_WASTE:0 "Die Linie verschwendet keine dieser Ressourcen."</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> CONFIRM_REMOVE_CONSTRUCTION_LEVEL_TITLE:0 "Bau abbrechen"</v>
+        <v>PRODUCTION_MATERIAL_WASTE:0 "Linie verschwendet $WASTE|R2$ dieser Ressource."</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> CONFIRM_REMOVE_CONSTRUCTION_LEVEL_TITLE:0 "Bau abbrechen"</v>
+        <v>PRODUCTION_MATERIAL_WASTE:0 "Linie verschwendet $WASTE|R2$ dieser Ressource."</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> CONFIRM_REMOVE_CONSTRUCTION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! dieses Bauwerk stornieren wollen?"</v>
+        <v>PRODUCTION_SPEED:0 "Produktionsgeschwindigkeit: $SPEED|Y$"</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v> CONFIRM_REMOVE_CONSTRUCTION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! dieses Bauwerk stornieren wollen?"</v>
+        <v>PRODUCTION_SPEED:0 "Produktionsgeschwindigkeit: $SPEED|Y$"</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> CONFIRM_REMOVE_CONVERSION_LEVEL_TITLE:0 "Umwandlung abbrechen"</v>
+        <v>PRODUCTION_SPEED_MODIFIERS:0 "§YProduktionsausstoß geändert durch:§!"</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v> CONFIRM_REMOVE_CONVERSION_LEVEL_TITLE:0 "Umwandlung abbrechen"</v>
+        <v>PRODUCTION_SPEED_MODIFIERS:0 "§YProduktionsausstoß geändert durch:§!"</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> CONFIRM_REMOVE_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie diese Umwandlung §Rückgängig§! machen wollen?"</v>
+        <v>INDUSTRIAL_CAPACITY_FACTOR:0 "Fabrik Output: $VALUE|Y$"</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> CONFIRM_REMOVE_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie diese Umwandlung §Rückgängig§! machen wollen?"</v>
+        <v>INDUSTRIAL_CAPACITY_FACTOR:0 "Fabrik Output: $VALUE|Y$"</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> CONFIRM_ADD_CONVERSION_LEVEL_TITLE:0 "Umwandlung beginnen"</v>
+        <v>INDUSTRIAL_CAPACITY_FACTOR_MODIFIERS:0 "Fabrik-Output modifiziert durch:"</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> CONFIRM_ADD_CONVERSION_LEVEL_TITLE:0 "Umwandlung beginnen"</v>
+        <v>INDUSTRIAL_CAPACITY_FACTOR_MODIFIERS:0 "Fabrik-Output modifiziert durch:"</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> CONFIRM_ADD_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Umbauen§! wollen?"</v>
+        <v>INDUSTRIAL_PROGRESS:0 "$BUILDING|H$ ist $PROGRESS|0H$/$COST|0H$ ( $VALUE|0%H$ ) abgeschlossen."</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> CONFIRM_ADD_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Umbauen§! wollen?"</v>
+        <v>INDUSTRIAL_PROGRESS:0 "$BUILDING|H$ ist $PROGRESS|0H$/$COST|0H$ ( $VALUE|0%H$ ) abgeschlossen."</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> PRODUCTION_EFFICIENCY_GAIN_BASE:0 "Täglicher Basisgewinn: $VAL|%Y$"</v>
+        <v>INDUSTRIAL_PROGRESS_REPAIR:0 "$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%1H$"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> PRODUCTION_EFFICIENCY_GAIN_BASE:0 "Täglicher Basisgewinn: $VAL|%Y$"</v>
+        <v>INDUSTRIAL_PROGRESS_REPAIR:0 "$BUILDING|H$ Reparaturfortschritt: $PROGRESS|%1H$"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> PRODUCTION_RESOURCE_FACTOR:0 "Mangel an Ressourcen: $VAL|%+$"</v>
+        <v>INDUSTRIAL_BASE_FACTORY_OUTPUT:0 "Output der Basisfabrik: $WERT|H$"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> PRODUCTION_RESOURCE_FACTOR:0 "Mangel an Ressourcen: $VAL|%+$"</v>
+        <v>INDUSTRIAL_BASE_FACTORY_OUTPUT:0 "Output der Basisfabrik: $WERT|H$"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £production_cost , d.h. wir können $PERTIMEPERIOD$ produzieren.\n"</v>
+        <v>INDUSTRIAL_BASE_SPEED:0 "Output von $FACTORIES|0H$ Fabriken: $VALUE|H$"</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £production_cost , d.h. wir können $PERTIMEPERIOD$ produzieren.\n"</v>
+        <v>INDUSTRIAL_BASE_SPEED:0 "Output von $FACTORIES|0H$ Fabriken: $VALUE|H$"</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_REFIT:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \nDie Umrechnung von $FROM|Y$ kostet $COST|2Y$ £production_cost , was bedeutet, dass wir $PERTIMEPERIOD$ umrechnen können.\n"</v>
+        <v>PROD_COST_VALUE:0 "$Produktionskosten $WERT$"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_REFIT:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \nDie Umrechnung von $FROM|Y$ kostet $COST|2Y$ £production_cost , was bedeutet, dass wir $PERTIMEPERIOD$ umrechnen können.\n"</v>
+        <v>PROD_COST_VALUE:0 "$Produktionskosten $WERT$"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_NAVAL:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Naval Dockyards tragen zu $navprod_cost $OUTPUT|Y$.\n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £navprod_cost , was bedeutet, dass wir $PERTIMEPERIOD$ produzieren können.\n"</v>
+        <v>NAVPROD_COST_VALUE:0 "$navprod_cost $VALUE$"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_NAVAL:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Naval Dockyards tragen zu $navprod_cost $OUTPUT|Y$.\n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £navprod_cost , was bedeutet, dass wir $PERTIMEPERIOD$ produzieren können.\n"</v>
+        <v>NAVPROD_COST_VALUE:0 "$navprod_cost $VALUE$"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_NAVAL_REFIT:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Marinewerften tragen zu £navprod_cost $OUTPUT|Y$ bei. \nDie Umrüstung von $FROM|Y$ kostet $COST|2Y$ £navprod_cost , d.h. wir können $PERTIMEPERIOD$ umrüsten. \n"</v>
-      </c>
-      <c r="D187" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> PRODUCTION_OUTPUT_EXPLAIN_NAVAL_REFIT:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Marinewerften tragen zu £navprod_cost $OUTPUT|Y$ bei. \nDie Umrüstung von $FROM|Y$ kostet $COST|2Y$ £navprod_cost , d.h. wir können $PERTIMEPERIOD$ umrüsten. \n"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_HEADER: "§HFabriken in Gebrauch§!"</v>
+      </c>
+      <c r="D187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> PRODUCTION_UNITS_PER_DAY:0 "$UNITS|Y$ Einheiten pro Tag"</v>
-      </c>
-      <c r="D188" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v> PRODUCTION_UNITS_PER_DAY:0 "$UNITS|Y$ Einheiten pro Tag"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_TOTAL: "Gesamt: $VALUE|Y$"</v>
+      </c>
+      <c r="D188" s="1"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> PRODUCTION_UNITS_PER_WEEK:0 "$UNITS|Y$ Einheiten pro Woche"</v>
-      </c>
-      <c r="D189" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> PRODUCTION_UNITS_PER_WEEK:0 "$UNITS|Y$ Einheiten pro Woche"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_AVAILABLE:1 "Nicht verwendet: $VALUE|Y$"</v>
+      </c>
+      <c r="D189" s="1"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> PRODUCTION_UNITS_PER_MONTH:0 "$UNITS|Y$ Einheiten pro Monat"</v>
-      </c>
-      <c r="D190" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v> PRODUCTION_UNITS_PER_MONTH:0 "$UNITS|Y$ Einheiten pro Monat"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_CURRENTLY:0 "In Gebrauch: $VALUE|R$"</v>
+      </c>
+      <c r="D190" s="1"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> PRODUCTION_UNITS_PER_YEAR:0 "$UNITS|Y$ Einheiten pro Jahr"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_OWNED:0 "Eigene: $VAL|H$"</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v> PRODUCTION_UNITS_PER_YEAR:0 "$UNITS|Y$ Einheiten pro Jahr"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_OWNED:0 "Eigene: $VAL|H$"</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> PRODUCTION_FACTORY_ASSIGN_DESC:1 "Klicken Sie hier, um dieser Produktionslinie den Fabrikartikel $FACTORIES|Y$ §YMilitärische Fabriken§! zuzuweisen. Dies würde einen Basisproduktionsausstoß von £production_cost $OUTPUT|Y$ pro Tag ergeben.\nDer Gesamtausstoß wird von §YResources§!, §YProduction Efficiency§! und anderen §YProduction Modifiers§! beeinflusst."</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_TRADE: "Handelsexporte: §G+$VAL$§!"</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v> PRODUCTION_FACTORY_ASSIGN_DESC:1 "Klicken Sie hier, um dieser Produktionslinie den Fabrikartikel $FACTORIES|Y$ §YMilitärische Fabriken§! zuzuweisen. Dies würde einen Basisproduktionsausstoß von £production_cost $OUTPUT|Y$ pro Tag ergeben.\nDer Gesamtausstoß wird von §YResources§!, §YProduction Efficiency§! und anderen §YProduction Modifiers§! beeinflusst."</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_TRADE: "Handelsexporte: §G+$VAL$§!"</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> PRODUCTION_DOCKYARD_ASSIGN_DESC:1 "Klicke hier, um dieser Produktionslinie £naval_factory_icon $FACTORIES|Y$ §YNaval Dockyards§! zuzuweisen. Dies führt zu einem Basisproduktionsausstoß von £navprod_cost $OUTPUT|Y$ pro Tag. \Der Gesamtausstoß wird durch §YRessourcen§! und andere §YProduktionsmodifikatoren§! beeinflusst."</v>
-      </c>
-      <c r="D193" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v> PRODUCTION_DOCKYARD_ASSIGN_DESC:1 "Klicke hier, um dieser Produktionslinie £naval_factory_icon $FACTORIES|Y$ §YNaval Dockyards§! zuzuweisen. Dies führt zu einem Basisproduktionsausstoß von £navprod_cost $OUTPUT|Y$ pro Tag. \Der Gesamtausstoß wird durch §YRessourcen§! und andere §YProduktionsmodifikatoren§! beeinflusst."</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_LICENSES: "Lizenzexporte: §G+$VAL$§!"</v>
+      </c>
+      <c r="D193" s="1"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> PRODUCTION_BASE_OUTPUT:0 "Basis Output: $WERT|Y$ x $MUL|Y$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_SUBJECTS:0 "Von Subjekten: +$VAL|H$"</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> PRODUCTION_BASE_OUTPUT:0 "Basis Output: $WERT|Y$ x $MUL|Y$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_SUBJECTS:0 "Von Subjekten: +$VAL|H$"</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> PRODUCTION_EFF_GAIN_HINT:0 "§YEffizienzgewinngeschwindigkeit modifiziert durch:§!"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_MASTER:0 "An Overlord gegeben: $VAL|R$"</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v> PRODUCTION_EFF_GAIN_HINT:0 "§YEffizienzgewinngeschwindigkeit modifiziert durch:§!"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_MASTER:0 "An Overlord gegeben: $VAL|R$"</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> CARRIER_AIR_WING_COMPOSITION_TITLE:0 "Setzt die Standardzusammensetzung der Luftflügel für diesen Träger"</v>
-      </c>
-      <c r="D196" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v> CARRIER_AIR_WING_COMPOSITION_TITLE:0 "Setzt die Standardzusammensetzung der Luftflügel für diesen Träger"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_OCCUPATION: "Aus besetzen Ländern: §G+$VAL$§!"</v>
+      </c>
+      <c r="D196" s="1"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C197" s="1" t="str">
         <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_UNDER:0 "$COUNT|Y$/$LIMIT$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_OTHERS:0 "Aus anderen Ländern: +$VAL|H$"</v>
       </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
-        <v> CARRIER_AIR_WING_LIMIT_UNDER:0 "$COUNT|Y$/$LIMIT$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_FROM_OTHERS:0 "Aus anderen Ländern: +$VAL|H$"</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_MATCH:0 "$COUNT|G$/$LIMIT$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_OTHERS:0 "An andere Länder gegeben: $VAL|R$"</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v> CARRIER_AIR_WING_LIMIT_MATCH:0 "$COUNT|G$/$LIMIT$"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_OTHERS:0 "An andere Länder gegeben: $VAL|R$"</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C199" s="1" t="str">
         <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_OVER:0 "$COUNT|G$/$LIMIT$"</v>
-      </c>
-      <c r="D199" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A199),"",C199)</f>
-        <v> CARRIER_AIR_WING_LIMIT_OVER:0 "$COUNT|G$/$LIMIT$"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_TRADE: "Handelsimporte: $VAL|R$"</v>
+      </c>
+      <c r="D199" s="1"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C200" s="1" t="str">
         <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC:0 "Flugzeuge/Trägerkapazität"</v>
-      </c>
-      <c r="D200" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A200),"",C200)</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC:0 "Flugzeuge/Trägerkapazität"</v>
-      </c>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_SENT_TO_LICENSES: "Lizenzimporte: $VAL|R$"</v>
+      </c>
+      <c r="D200" s="1"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C201" s="1" t="str">
         <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC_UNDER:0 "§YDie Kapazität dieses Carriers wird nicht voll genutzt§!"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_DAMAGED:0 "Beschädigt: $VAL|R$"</v>
       </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC_UNDER:0 "§YDie Kapazität dieses Carriers wird nicht voll genutzt§!"</v>
+        <v>PRODUCTION_CIVILIAN_FACTORIES_DAMAGED:0 "Beschädigt: $VAL|R$"</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C202" s="1" t="str">
         <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC_OVER:0 "§RDie Kapazität dieses Trägers wird überschritten und die dort stationierten Luftgeschwader erleiden eine Strafe§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED:2 "$VALUE|0Y$"</v>
       </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
-        <v> CARRIER_AIR_WING_LIMIT_DESC_OVER:0 "§RDie Kapazität dieses Trägers wird überschritten und die dort stationierten Luftgeschwader erleiden eine Strafe§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED:2 "$VALUE|0Y$"</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C203" s="1" t="str">
         <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v> CARRIER_AIR_WING_INCREASE:0 "Betrag erhöhen§n§GCtrl+Klick zum Erhöhen um§! §H5§!\n§GShift+Klick zum Erhöhen um§! §H10§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED_FILLED:1 "$AMOUNT|0G$"</v>
       </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
-        <v> CARRIER_AIR_WING_INCREASE:0 "Betrag erhöhen§n§GCtrl+Klick zum Erhöhen um§! §H5§!\n§GShift+Klick zum Erhöhen um§! §H10§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED_FILLED:1 "$AMOUNT|0G$"</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C204" s="1" t="str">
         <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v> CARRIER_AIR_WING_DECREASE:0 "Betrag vermindern\n§Strg+Klick zum Vermindern um§! §H5§!\n§GShift+Klick zum Verringern um§! §H10§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED_UPGRADE:1 "$VALUE|0Y$"</v>
       </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
-        <v> CARRIER_AIR_WING_DECREASE:0 "Betrag vermindern\n§Strg+Klick zum Vermindern um§! §H5§!\n§GShift+Klick zum Verringern um§! §H10§!"</v>
+        <v>PRODUCTION_EQUIPMENT_TOTAL_NEED_UPGRADE:1 "$VALUE|0Y$"</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C205" s="1" t="str">
         <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v> PRODUCTION_ENTRY_NEW:1 "(neu)"</v>
+        <v>PRODUCTION_EQUIPMENT_DAILY_BALANCE:0 "Tagesbilanz: $VALUE|=2Y$"</v>
       </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
-        <v> PRODUCTION_ENTRY_NEW:1 "(neu)"</v>
+        <v>PRODUCTION_EQUIPMENT_DAILY_BALANCE:0 "Tagesbilanz: $VALUE|=2Y$"</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C206" s="1" t="str">
         <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v> PRODUCTION_ENTRY_OUTDATED:1 "(veraltet)"</v>
+        <v>PRODUCTION_EQUIPMENT_FILL_ESTIMATION:0 "Mit dem aktuellen Tagessaldo werden wir §YFill§! unseren Bedarf in $VALUE|0Y$ Tagen decken."</v>
       </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
-        <v> PRODUCTION_ENTRY_OUTDATED:1 "(veraltet)"</v>
+        <v>PRODUCTION_EQUIPMENT_FILL_ESTIMATION:0 "Mit dem aktuellen Tagessaldo werden wir §YFill§! unseren Bedarf in $VALUE|0Y$ Tagen decken."</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> PRODUCTION_LINE_CHANGE:0 "§Klicken Sie auf §Hchange§!, um die produzierte Ausrüstung zu wechseln.\nSie behalten einen Teil der Effizienz, wenn Sie zu einer neueren Version der gleichen Ausrüstung wechseln.\n§!"</v>
+        <v>PRODUCTION_EQUIPMENT_FILLED:0 "Unser Bedarf ist §GFilled§! für jetzt."</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v> PRODUCTION_LINE_CHANGE:0 "§Klicken Sie auf §Hchange§!, um die produzierte Ausrüstung zu wechseln.\nSie behalten einen Teil der Effizienz, wenn Sie zu einer neueren Version der gleichen Ausrüstung wechseln.\n§!"</v>
+        <v>PRODUCTION_EQUIPMENT_FILLED:0 "Unser Bedarf ist §GFilled§! für jetzt."</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C208" s="1" t="str">
         <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v> PRODUCTION_LINE_CHANGE_NAVAL:0 "§Klicken Sie auf §Ändern§! die produzierte Ausrüstung.\n§!§Sie verlieren alle Fortschritte für diese Linie.§!"</v>
+        <v>PRODUCTION_EQUIPMENT_LOSSES:0 "Wir haben gestern $VALUE|R$ Ausrüstung verloren."</v>
       </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
-        <v> PRODUCTION_LINE_CHANGE_NAVAL:0 "§Klicken Sie auf §Ändern§! die produzierte Ausrüstung.\n§!§Sie verlieren alle Fortschritte für diese Linie.§!"</v>
+        <v>PRODUCTION_EQUIPMENT_LOSSES:0 "Wir haben gestern $VALUE|R$ Ausrüstung verloren."</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_FILTER:0 "Infanterie &amp; Artillerie Ausrüstung"</v>
+        <v>PROD_LINE_PLANE_DEST_RESERVES_DUE_TO_MANPOWER:0 "Nach §YReserves§! verschoben, da nicht genügend §HManpower§! für die angeforderten §YReinforcements§!"</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v> PRODUCTION_EQUIPMENT_FILTER:0 "Infanterie &amp; Artillerie Ausrüstung"</v>
+        <v>PROD_LINE_PLANE_DEST_RESERVES_DUE_TO_MANPOWER:0 "Nach §YReserves§! verschoben, da nicht genügend §HManpower§! für die angeforderten §YReinforcements§!"</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C210" s="1" t="str">
         <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v> PRODUCTION_ARMOR_FILTER:0 "Gepanzerte Fahrzeuge"</v>
+        <v>PROD_LINE_PLANE_DEST_RESERVES:1 "In §YReserven§ verschoben!"</v>
       </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
-        <v> PRODUCTION_ARMOR_FILTER:0 "Gepanzerte Fahrzeuge"</v>
+        <v>PROD_LINE_PLANE_DEST_RESERVES:1 "In §YReserven§ verschoben!"</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v> PRODUCTION_AIR_FILTER:0 "Flugzeuge"</v>
+        <v>PROD_LINE_PLANE_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
       </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
-        <v> PRODUCTION_AIR_FILTER:0 "Flugzeuge"</v>
+        <v>PROD_LINE_PLANE_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C212" s="1" t="str">
         <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v> PRODUCTION_CAPITAL_SHIPS_FILTER:0 "Große Schiffe"</v>
+        <v>PROD_LINE_PLANE_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
       </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
-        <v> PRODUCTION_CAPITAL_SHIPS_FILTER:0 "Große Schiffe"</v>
+        <v>PROD_LINE_PLANE_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C213" s="1" t="str">
         <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v> PRODUCTION_SCREEN_SHIPS_FILTER:0 "Bildschirm-Schiffe"</v>
+        <v>PROD_LINE_LAND_DEST_RESERVES:1 "Wird §YStockpiled§!"</v>
       </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
-        <v> PRODUCTION_SCREEN_SHIPS_FILTER:0 "Bildschirm-Schiffe"</v>
+        <v>PROD_LINE_LAND_DEST_RESERVES:1 "Wird §YStockpiled§!"</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C214" s="1" t="str">
         <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v> PRODUCTION_OTHER_SHIPS_FILTER:0 "Andere Schiffe"</v>
+        <v>PROD_LINE_LAND_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
       </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
-        <v> PRODUCTION_OTHER_SHIPS_FILTER:0 "Andere Schiffe"</v>
+        <v>PROD_LINE_LAND_DEST_UPGRADING:2 "Benötigt für §YUpgrades§!"</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C215" s="1" t="str">
         <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v> PRODUCTION_LACKING_RESOURCES_FILTER:0 "Erfüllte Ressourcen"</v>
+        <v>PROD_LINE_LAND_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
       </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
-        <v> PRODUCTION_LACKING_RESOURCES_FILTER:0 "Erfüllte Ressourcen"</v>
+        <v>PROD_LINE_LAND_DEST_REINFORCEMENT:2 "Benötigt für §YVerstärkung§!"</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="C216" s="1" t="str">
         <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v> PRODUCTION_STOCKPILING_FILTER:0 "Vorratshaltung"</v>
+        <v>CONFIRM_REMOVE_BUILDING_LEVEL_TITLE:0 "Gebäude entfernen"</v>
       </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
-        <v> PRODUCTION_STOCKPILING_FILTER:0 "Vorratshaltung"</v>
+        <v>CONFIRM_REMOVE_BUILDING_LEVEL_TITLE:0 "Gebäude entfernen"</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C217" s="1" t="str">
         <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v> PRODUCTION_REINFORCING_FILTER:0 "Verstärkung"</v>
+        <v>CONFIRM_REMOVE_BUILDING_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Remove§! entfernen wollen?"</v>
       </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
-        <v> PRODUCTION_REINFORCING_FILTER:0 "Verstärkung"</v>
+        <v>CONFIRM_REMOVE_BUILDING_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Remove§! entfernen wollen?"</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v> PRODUCTION_UPGRADING_FILTER:0 "Aufrüstung"</v>
+        <v>CONFIRM_REMOVE_CONSTRUCTION_LEVEL_TITLE:0 "Bau abbrechen"</v>
       </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
-        <v> PRODUCTION_UPGRADING_FILTER:0 "Aufrüstung"</v>
+        <v>CONFIRM_REMOVE_CONSTRUCTION_LEVEL_TITLE:0 "Bau abbrechen"</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C219" s="1" t="str">
         <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v> PRODUCTION_OUTDATED_FILTER:1 "Up-to-date Ausrüstung"</v>
+        <v>CONFIRM_REMOVE_CONSTRUCTION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! dieses Bauwerk stornieren wollen?"</v>
       </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
-        <v> PRODUCTION_OUTDATED_FILTER:1 "Up-to-date Ausrüstung"</v>
+        <v>CONFIRM_REMOVE_CONSTRUCTION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie §Rcancel§! dieses Bauwerk stornieren wollen?"</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C220" s="1" t="str">
         <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v> PRODUCTION_REFITTING_FILTER:0 "Nachrüstung"</v>
+        <v>CONFIRM_REMOVE_CONVERSION_LEVEL_TITLE:0 "Umwandlung abbrechen"</v>
       </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
-        <v> PRODUCTION_REFITTING_FILTER:0 "Nachrüstung"</v>
+        <v>CONFIRM_REMOVE_CONVERSION_LEVEL_TITLE:0 "Umwandlung abbrechen"</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C221" s="1" t="str">
         <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v> PRODUCTION_FILTER_CLICK_TO_HIDE:0 "§GKlick§! zum §Ausblenden§! dieser gesamten Kategorie."</v>
+        <v>CONFIRM_REMOVE_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie diese Umwandlung §Rückgängig§! machen wollen?"</v>
       </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
-        <v> PRODUCTION_FILTER_CLICK_TO_HIDE:0 "§GKlick§! zum §Ausblenden§! dieser gesamten Kategorie."</v>
+        <v>CONFIRM_REMOVE_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie diese Umwandlung §Rückgängig§! machen wollen?"</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C222" s="1" t="str">
         <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v> PRODUCTION_FILTER_CLICK_TO_SHOW:0 "§GKlick§! zum §Einblenden§! der gesamten Kategorie."</v>
+        <v>CONFIRM_ADD_CONVERSION_LEVEL_TITLE:0 "Umwandlung beginnen"</v>
       </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
-        <v> PRODUCTION_FILTER_CLICK_TO_SHOW:0 "§GKlick§! zum §Einblenden§! der gesamten Kategorie."</v>
+        <v>CONFIRM_ADD_CONVERSION_LEVEL_TITLE:0 "Umwandlung beginnen"</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C223" s="1" t="str">
         <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v> PRODUCTION_FILTER_SHIFTCLICK:1 "\n§GShift+Klick§! zum §Ausblenden§! von allem anderen."</v>
+        <v>CONFIRM_ADD_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Umbauen§! wollen?"</v>
       </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
-        <v> PRODUCTION_FILTER_SHIFTCLICK:1 "\n§GShift+Klick§! zum §Ausblenden§! von allem anderen."</v>
+        <v>CONFIRM_ADD_CONVERSION_LEVEL_DESC:0 "Sind Sie sicher, dass Sie dieses Gebäude §Umbauen§! wollen?"</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C224" s="1" t="str">
         <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v> PRODUCTION_FILTER_SHIFTCLICK_AGAIN:0 "\n§GShift+Klick§! um §Einblenden§! alles wieder einzublenden."</v>
+        <v>PRODUCTION_EFFICIENCY_GAIN_BASE:0 "Täglicher Basisgewinn: $VAL|%Y3$"</v>
       </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
-        <v> PRODUCTION_FILTER_SHIFTCLICK_AGAIN:0 "\n§GShift+Klick§! um §Einblenden§! alles wieder einzublenden."</v>
+        <v>PRODUCTION_EFFICIENCY_GAIN_BASE:0 "Täglicher Basisgewinn: $VAL|%Y3$"</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v> PRODUCTION_FILTER_RIGHTCLICK:0 "\n§Rechtsklick§! um alles aus dieser Kategorie auszublenden."</v>
+        <v>PRODUCTION_RESOURCE_FACTOR:0 "Mangel an Ressourcen: $VAL|%+$"</v>
       </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
-        <v> PRODUCTION_FILTER_RIGHTCLICK:0 "\n§Rechtsklick§! um alles aus dieser Kategorie auszublenden."</v>
+        <v>PRODUCTION_RESOURCE_FACTOR:0 "Mangel an Ressourcen: $VAL|%+$"</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> PRODUCTION_FILTER_ARMS_FACTORIES:0 "Militärische Fabriken verwendet"</v>
-      </c>
-      <c r="D226" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A226),"",C226)</f>
-        <v> PRODUCTION_FILTER_ARMS_FACTORIES:0 "Militärische Fabriken verwendet"</v>
-      </c>
+        <v>PRODUCTION_RESOURCE_FACTOR_WITH_MIO: "Mangel an Ressourcen: $VAL|%+$ ($FROM_MIO$)"</v>
+      </c>
+      <c r="D226" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C227" s="1" t="str">
         <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v> PRODUCTION_FILTER_DOCKYARDS:0 "Verwendete Marinewerften"</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £production_cost , d.h. wir können $PERTIMEPERIOD$ produzieren.\n"</v>
       </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
-        <v> PRODUCTION_FILTER_DOCKYARDS:0 "Verwendete Marinewerften"</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £production_cost , d.h. wir können $PERTIMEPERIOD$ produzieren.\n"</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_REFIT:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \nDie Umrechnung von $FROM|Y$ kostet $COST|2Y$ £production_cost , was bedeutet, dass wir $PERTIMEPERIOD$ umrechnen können.\n"</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
-        <v/>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_REFIT:0 "Unsere $FACTORIES|Y$ £factory_item Militärfabriken tragen $OUTPUT|Y$ £production_cost bei. \nDie Umrechnung von $FROM|Y$ kostet $COST|2Y$ £production_cost , was bedeutet, dass wir $PERTIMEPERIOD$ umrechnen können.\n"</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="C229" s="1" t="str">
         <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_NAVAL:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Naval Dockyards tragen zu $navprod_cost $OUTPUT|Y$.\n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £navprod_cost , was bedeutet, dass wir $PERTIMEPERIOD$ produzieren können.\n"</v>
       </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
-        <v/>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_NAVAL:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Naval Dockyards tragen zu $navprod_cost $OUTPUT|Y$.\n$ITEM|Y$ hat Kosten von $ITEM_COST|2Y$ £navprod_cost , was bedeutet, dass wir $PERTIMEPERIOD$ produzieren können.\n"</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C230" s="1" t="str">
         <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v> INTEL_CIVILIAN_FACTORIES_USED_ON_TRADE:0 "Geschätzte zivile Fabriken, die für den Handel genutzt werden"</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_NAVAL_REFIT:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Marinewerften tragen zu £navprod_cost $OUTPUT|Y$ bei. \nDie Umrüstung von $FROM|Y$ kostet $COST|2Y$ £navprod_cost , d.h. wir können $PERTIMEPERIOD$ umrüsten. \n"</v>
       </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
-        <v> INTEL_CIVILIAN_FACTORIES_USED_ON_TRADE:0 "Geschätzte zivile Fabriken, die für den Handel genutzt werden"</v>
+        <v>PRODUCTION_OUTPUT_EXPLAIN_NAVAL_REFIT:0 "Unsere $FACTORIES|Y$ £naval_factory_icon Marinewerften tragen zu £navprod_cost $OUTPUT|Y$ bei. \nDie Umrüstung von $FROM|Y$ kostet $COST|2Y$ £navprod_cost , d.h. wir können $PERTIMEPERIOD$ umrüsten. \n"</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C231" s="1" t="str">
         <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_EQUIPMENT:0 "Geschätzte Militärfabriken, die für militärische Ausrüstungen verwendet werden"</v>
+        <v>PRODUCTION_UNITS_PER_DAY:0 "$UNITS|Y$ Einheiten pro Tag"</v>
       </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_EQUIPMENT:0 "Geschätzte Militärfabriken, die für militärische Ausrüstungen verwendet werden"</v>
+        <v>PRODUCTION_UNITS_PER_DAY:0 "$UNITS|Y$ Einheiten pro Tag"</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_ARMOR:0 "Geschätzte Militärische Fabriken für gepanzerte Fahrzeuge"</v>
+        <v>PRODUCTION_UNITS_PER_WEEK:0 "$UNITS|Y$ Einheiten pro Woche"</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_ARMOR:0 "Geschätzte Militärische Fabriken für gepanzerte Fahrzeuge"</v>
+        <v>PRODUCTION_UNITS_PER_WEEK:0 "$UNITS|Y$ Einheiten pro Woche"</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C233" s="1" t="str">
         <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_AIR:0 "Geschätzte Militärische Fabriken für Flugzeuge"</v>
+        <v>PRODUCTION_UNITS_PER_MONTH:0 "$UNITS|Y$ Einheiten pro Monat"</v>
       </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
-        <v> INTEL_ARMS_FACTORIES_USED_ON_AIR:0 "Geschätzte Militärische Fabriken für Flugzeuge"</v>
+        <v>PRODUCTION_UNITS_PER_MONTH:0 "$UNITS|Y$ Einheiten pro Monat"</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C234" s="1" t="str">
         <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v> INTEL_DOCKYARDS_USED_ON_CAPITAL:0 "Geschätzte Marinewerften für Großkampfschiffe"</v>
+        <v>PRODUCTION_UNITS_PER_YEAR:0 "$UNITS|Y$ Einheiten pro Jahr"</v>
       </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
-        <v> INTEL_DOCKYARDS_USED_ON_CAPITAL:0 "Geschätzte Marinewerften für Großkampfschiffe"</v>
+        <v>PRODUCTION_UNITS_PER_YEAR:0 "$UNITS|Y$ Einheiten pro Jahr"</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C235" s="1" t="str">
         <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v> INTEL_DOCKYARDS_USED_ON_SCREEN:0 "Schätzung der Marinewerften, die Bildschirmschiffe verwenden"</v>
+        <v>PRODUCTION_FACTORY_ASSIGN_DESC:1 "Klicken Sie hier, um dieser Produktionslinie den Fabrikartikel $FACTORIES|Y$ §YMilitärische Fabriken§! zuzuweisen. Dies würde einen Basisproduktionsausstoß von £production_cost $OUTPUT|Y$ pro Tag ergeben.\nDer Gesamtausstoß wird von §YResources§!, §YProduction Efficiency§! und anderen §YProduction Modifiers§! beeinflusst."</v>
       </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
-        <v> INTEL_DOCKYARDS_USED_ON_SCREEN:0 "Schätzung der Marinewerften, die Bildschirmschiffe verwenden"</v>
+        <v>PRODUCTION_FACTORY_ASSIGN_DESC:1 "Klicken Sie hier, um dieser Produktionslinie den Fabrikartikel $FACTORIES|Y$ §YMilitärische Fabriken§! zuzuweisen. Dies würde einen Basisproduktionsausstoß von £production_cost $OUTPUT|Y$ pro Tag ergeben.\nDer Gesamtausstoß wird von §YResources§!, §YProduction Efficiency§! und anderen §YProduction Modifiers§! beeinflusst."</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C236" s="1" t="str">
         <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v> INTEL_DOCKYARDS_USED_ON_OTHER:0 "Geschätzte Marinewerften für andere Schiffe"</v>
+        <v>PRODUCTION_DOCKYARD_ASSIGN_DESC:1 "Klicke hier, um dieser Produktionslinie £naval_factory_icon $FACTORIES|Y$ §YNaval Dockyards§! zuzuweisen. Dies führt zu einem Basisproduktionsausstoß von £navprod_cost $OUTPUT|Y$ pro Tag. \Der Gesamtausstoß wird durch §YRessourcen§! und andere §YProduktionsmodifikatoren§! beeinflusst."</v>
       </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
-        <v> INTEL_DOCKYARDS_USED_ON_OTHER:0 "Geschätzte Marinewerften für andere Schiffe"</v>
+        <v>PRODUCTION_DOCKYARD_ASSIGN_DESC:1 "Klicke hier, um dieser Produktionslinie £naval_factory_icon $FACTORIES|Y$ §YNaval Dockyards§! zuzuweisen. Dies führt zu einem Basisproduktionsausstoß von £navprod_cost $OUTPUT|Y$ pro Tag. \Der Gesamtausstoß wird durch §YRessourcen§! und andere §YProduktionsmodifikatoren§! beeinflusst."</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="C237" s="1" t="str">
         <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_BASE_OUTPUT:0 "Basis Output: $WERT|Y$ x $MUL|Y$"</v>
       </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
-        <v/>
+        <v>PRODUCTION_BASE_OUTPUT:0 "Basis Output: $WERT|Y$ x $MUL|Y$"</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="C238" s="1" t="str">
         <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
+        <v>PRODUCTION_EFF_GAIN_HINT:0 "§YEffizienzgewinngeschwindigkeit modifiziert durch:§!"</v>
       </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
-        <v/>
+        <v>PRODUCTION_EFF_GAIN_HINT:0 "§YEffizienzgewinngeschwindigkeit modifiziert durch:§!"</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C239" s="1" t="str">
         <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v> PRODUCTION_DRAG_N_DROP:0 "§GZiehen und ablegen§! um die §YPriorität§! zu ändern."</v>
+        <v>CARRIER_AIR_WING_COMPOSITION_TITLE:0 "Setzt die Standardzusammensetzung der Luftflügel für diesen Träger"</v>
       </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
-        <v> PRODUCTION_DRAG_N_DROP:0 "§GZiehen und ablegen§! um die §YPriorität§! zu ändern."</v>
+        <v>CARRIER_AIR_WING_COMPOSITION_TITLE:0 "Setzt die Standardzusammensetzung der Luftflügel für diesen Träger"</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C240" s="1" t="str">
         <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v> PRODUCTION_COLLAPSE:2 "§GKlick§! zum Zusammenklappen.\n§GStrg + Klick§! zum Zusammenklappen aller dieser Kategorie.\n§GShift + Klick§! zum Zusammenklappen aller Produktionslinien."</v>
+        <v>CARRIER_AIR_WING_LIMIT_UNDER:0 "$COUNT|Y$/$LIMIT$"</v>
       </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
-        <v> PRODUCTION_COLLAPSE:2 "§GKlick§! zum Zusammenklappen.\n§GStrg + Klick§! zum Zusammenklappen aller dieser Kategorie.\n§GShift + Klick§! zum Zusammenklappen aller Produktionslinien."</v>
+        <v>CARRIER_AIR_WING_LIMIT_UNDER:0 "$COUNT|Y$/$LIMIT$"</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C241" s="1" t="str">
         <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v> PRODUCTION_EXPAND:2 "§GKlick§! zum Erweitern.\n§GStrg + Klick§! zum Erweitern aller dieser Kategorie.\n§GShift + Klick§! zum Erweitern aller Produktionslinien."</v>
+        <v>CARRIER_AIR_WING_LIMIT_MATCH:0 "$COUNT|G$/$LIMIT$"</v>
       </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
-        <v> PRODUCTION_EXPAND:2 "§GKlick§! zum Erweitern.\n§GStrg + Klick§! zum Erweitern aller dieser Kategorie.\n§GShift + Klick§! zum Erweitern aller Produktionslinien."</v>
+        <v>CARRIER_AIR_WING_LIMIT_MATCH:0 "$COUNT|G$/$LIMIT$"</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C242" s="1" t="str">
         <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v> PRODUCTION_FACTORY_SCALE_UP:0 "§GKlick§! zum Hochskalieren auf §Y$SCALE$x§!-Ansicht."</v>
+        <v>CARRIER_AIR_WING_LIMIT_OVER:0 "$COUNT|G$/$LIMIT$"</v>
       </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
-        <v> PRODUCTION_FACTORY_SCALE_UP:0 "§GKlick§! zum Hochskalieren auf §Y$SCALE$x§!-Ansicht."</v>
+        <v>CARRIER_AIR_WING_LIMIT_OVER:0 "$COUNT|G$/$LIMIT$"</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C243" s="1" t="str">
         <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v> PRODUCTION_FACTORY_SCALE_DOWN:0 "§GKlick§! zum Verkleinern auf die Ansicht §Y1x§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC:0 "Flugzeuge/Trägerkapazität"</v>
       </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
-        <v> PRODUCTION_FACTORY_SCALE_DOWN:0 "§GKlick§! zum Verkleinern auf die Ansicht §Y1x§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC:0 "Flugzeuge/Trägerkapazität"</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C244" s="1" t="str">
         <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v> PRODUCTION_ADD_FACTORIES_CLICK:0 "§GKlick§! zum Hinzufügen von §Y+1§!\n§GStrg + Klick§! zum Hinzufügen von §Y+5§!\n§GShift + Klick§! zum Hinzufügen von §Y+10§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC_UNDER:0 "§YDie Kapazität dieses Carriers wird nicht voll genutzt§!"</v>
       </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
-        <v> PRODUCTION_ADD_FACTORIES_CLICK:0 "§GKlick§! zum Hinzufügen von §Y+1§!\n§GStrg + Klick§! zum Hinzufügen von §Y+5§!\n§GShift + Klick§! zum Hinzufügen von §Y+10§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC_UNDER:0 "§YDie Kapazität dieses Carriers wird nicht voll genutzt§!"</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C245" s="1" t="str">
         <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v> PRODUCTION_SUB_FACTORIES_CLICK:0 "§GClick§! zum Subtrahieren §Y1§!\n§GCtrl + Click§! zum Subtrahieren §Y5§!\n§GShift + Click§! zum Subtrahieren §Y10§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC_OVER:0 "§RDie Kapazität dieses Trägers wird überschritten und die dort stationierten Luftgeschwader erleiden eine Strafe§!"</v>
       </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
-        <v> PRODUCTION_SUB_FACTORIES_CLICK:0 "§GClick§! zum Subtrahieren §Y1§!\n§GCtrl + Click§! zum Subtrahieren §Y5§!\n§GShift + Click§! zum Subtrahieren §Y10§!"</v>
+        <v>CARRIER_AIR_WING_LIMIT_DESC_OVER:0 "§RDie Kapazität dieses Trägers wird überschritten und die dort stationierten Luftgeschwader erleiden eine Strafe§!"</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C246" s="1" t="str">
         <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v> PRODUCTION_ADD_1:0 "§GKlick§! zum Addieren §Y+1§!"</v>
+        <v>CARRIER_AIR_WING_INCREASE:0 "Betrag erhöhen§n§GCtrl+Klick zum Erhöhen um§! §H5§!\n§GShift+Klick zum Erhöhen um§! §H10§!"</v>
       </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
-        <v> PRODUCTION_ADD_1:0 "§GKlick§! zum Addieren §Y+1§!"</v>
+        <v>CARRIER_AIR_WING_INCREASE:0 "Betrag erhöhen§n§GCtrl+Klick zum Erhöhen um§! §H5§!\n§GShift+Klick zum Erhöhen um§! §H10§!"</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C247" s="1" t="str">
         <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v> PRODUCTION_ADD_5:0 "§GCtrl + Klick§! zum Addieren §Y+5§!"</v>
+        <v>CARRIER_AIR_WING_DECREASE:0 "Betrag vermindern\n§Strg+Klick zum Vermindern um§! §H5§!\n§GShift+Klick zum Verringern um§! §H10§!"</v>
       </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
-        <v> PRODUCTION_ADD_5:0 "§GCtrl + Klick§! zum Addieren §Y+5§!"</v>
+        <v>CARRIER_AIR_WING_DECREASE:0 "Betrag vermindern\n§Strg+Klick zum Vermindern um§! §H5§!\n§GShift+Klick zum Verringern um§! §H10§!"</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> PRODUCTION_ADD_10:0 "§GShift + Klick§! zum Addieren §Y+10§!"</v>
+        <v>PRODUCTION_ENTRY_NEW:1 "(neu)"</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
-        <v> PRODUCTION_ADD_10:0 "§GShift + Klick§! zum Addieren §Y+10§!"</v>
+        <v>PRODUCTION_ENTRY_NEW:1 "(neu)"</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C249" s="1" t="str">
         <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v> PRODUCTION_SUB_1:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
+        <v>PRODUCTION_ENTRY_OUTDATED:1 "(veraltet)"</v>
       </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
-        <v> PRODUCTION_SUB_1:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
+        <v>PRODUCTION_ENTRY_OUTDATED:1 "(veraltet)"</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C250" s="1" t="str">
         <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v> PRODUCTION_SUB_5:0 "§GCtrl + Klick§! zum Subtrahieren von §Y5§!"</v>
+        <v>PRODUCTION_LINE_CHANGE:0 "§Klicken Sie auf §Hchange§!, um die produzierte Ausrüstung zu wechseln.\nSie behalten einen Teil der Effizienz, wenn Sie zu einer neueren Version der gleichen Ausrüstung wechseln.\n§!"</v>
       </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
-        <v> PRODUCTION_SUB_5:0 "§GCtrl + Klick§! zum Subtrahieren von §Y5§!"</v>
+        <v>PRODUCTION_LINE_CHANGE:0 "§Klicken Sie auf §Hchange§!, um die produzierte Ausrüstung zu wechseln.\nSie behalten einen Teil der Effizienz, wenn Sie zu einer neueren Version der gleichen Ausrüstung wechseln.\n§!"</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C251" s="1" t="str">
         <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v> PRODUCTION_SUB_10:0 "§GShift + Klick§! zum Subtrahieren §Y10§!"</v>
+        <v>PRODUCTION_LINE_CHANGE_NAVAL:0 "§Klicken Sie auf §Ändern§! die produzierte Ausrüstung.\n§!§Sie verlieren alle Fortschritte für diese Linie.§!"</v>
       </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
-        <v> PRODUCTION_SUB_10:0 "§GShift + Klick§! zum Subtrahieren §Y10§!"</v>
+        <v>PRODUCTION_LINE_CHANGE_NAVAL:0 "§Klicken Sie auf §Ändern§! die produzierte Ausrüstung.\n§!§Sie verlieren alle Fortschritte für diese Linie.§!"</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C252" s="1" t="str">
         <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v> PRODUCTION_ADD_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Addieren §Y+1§!"</v>
+        <v>PRODUCTION_EQUIPMENT_FILTER:0 "Infanterie &amp; Artillerie Ausrüstung"</v>
       </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
-        <v> PRODUCTION_ADD_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Addieren §Y+1§!"</v>
+        <v>PRODUCTION_EQUIPMENT_FILTER:0 "Infanterie &amp; Artillerie Ausrüstung"</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C253" s="1" t="str">
         <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v> PRODUCTION_SUB_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
+        <v>PRODUCTION_ARMOR_FILTER:0 "Gepanzerte Fahrzeuge"</v>
       </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
-        <v> PRODUCTION_SUB_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
+        <v>PRODUCTION_ARMOR_FILTER:0 "Gepanzerte Fahrzeuge"</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C254" s="1" t="str">
         <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v> PRODUCTION_CLICK_TO_APPEND_OR_INSERT:0 "§GKlick§! um eine neue Produktionslinie am Ende anzuhängen.\n§GShift + Klick§! um eine neue Produktionslinie an den Anfang zu setzen."</v>
+        <v>PRODUCTION_AIR_FILTER:0 "Flugzeuge"</v>
       </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
-        <v> PRODUCTION_CLICK_TO_APPEND_OR_INSERT:0 "§GKlick§! um eine neue Produktionslinie am Ende anzuhängen.\n§GShift + Klick§! um eine neue Produktionslinie an den Anfang zu setzen."</v>
+        <v>PRODUCTION_AIR_FILTER:0 "Flugzeuge"</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C255" s="1" t="str">
         <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_STATE_NAME:0 "$STATE$ ($LVL|Y$)"</v>
+        <v>PRODUCTION_CAPITAL_SHIPS_FILTER:0 "Große Schiffe"</v>
       </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
-        <v> PRODUCTION_NAVAL_DEPLOYMENT_STATE_NAME:0 "$STATE$ ($LVL|Y$)"</v>
+        <v>PRODUCTION_CAPITAL_SHIPS_FILTER:0 "Große Schiffe"</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C256" s="1" t="str">
         <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_NO_EQUIPMENT_IN_STOCK:0 "§RCurrently there is no equipment in stock that we could use to convert into: $VARIANT|H$§!"</v>
+        <v>PRODUCTION_SCREEN_SHIPS_FILTER:0 "Bildschirm-Schiffe"</v>
       </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
-        <v> PRODUCTION_LINE_CONVERT_NO_EQUIPMENT_IN_STOCK:0 "§RCurrently there is no equipment in stock that we could use to convert into: $VARIANT|H$§!"</v>
+        <v>PRODUCTION_SCREEN_SHIPS_FILTER:0 "Bildschirm-Schiffe"</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C257" s="1" t="str">
         <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_HEADER:0 "Umwandlung vom Lagerbestand"</v>
+        <v>PRODUCTION_OTHER_SHIPS_FILTER:0 "Andere Schiffe"</v>
       </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
-        <v> PRODUCTION_LINE_CONVERT_HEADER:0 "Umwandlung vom Lagerbestand"</v>
+        <v>PRODUCTION_OTHER_SHIPS_FILTER:0 "Andere Schiffe"</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C258" s="1" t="str">
         <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION:0 "Reihenfolge der Umwandlung:"</v>
+        <v>PRODUCTION_LACKING_RESOURCES_FILTER:0 "Erfüllte Ressourcen"</v>
       </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION:0 "Reihenfolge der Umwandlung:"</v>
+        <v>PRODUCTION_LACKING_RESOURCES_FILTER:0 "Erfüllte Ressourcen"</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>489</v>
+        <v>299</v>
       </c>
       <c r="C259" s="1" t="str">
         <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!) mit Kosten: "</v>
+        <v>PRODUCTION_STOCKPILING_FILTER:0 "Vorratshaltung"</v>
       </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!) mit Kosten: "</v>
+        <v>PRODUCTION_STOCKPILING_FILTER:0 "Vorratshaltung"</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C260" s="1" t="str">
         <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$ mit Kosten: "</v>
+        <v>PRODUCTION_REINFORCING_FILTER:0 "Verstärkung"</v>
       </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$ mit Kosten: "</v>
+        <v>PRODUCTION_REINFORCING_FILTER:0 "Verstärkung"</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C261" s="1" t="str">
         <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!)"</v>
+        <v>PRODUCTION_UPGRADING_FILTER:0 "Aufrüstung"</v>
       </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!)"</v>
+        <v>PRODUCTION_UPGRADING_FILTER:0 "Aufrüstung"</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C262" s="1" t="str">
         <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$"</v>
+        <v>PRODUCTION_OUTDATED_FILTER:1 "Up-to-date Ausrüstung"</v>
       </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
-        <v> PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$"</v>
+        <v>PRODUCTION_OUTDATED_FILTER:1 "Up-to-date Ausrüstung"</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C263" s="1" t="str">
         <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_RESOURCE_COST_ENTRY:0 "§H$NUM$§!£resources_strip|$FRAME$ "</v>
+        <v>PRODUCTION_REFITTING_FILTER:0 "Nachrüstung"</v>
       </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
-        <v> PRODUCTION_LINE_CONVERT_RESOURCE_COST_ENTRY:0 "§H$NUM$§!£resources_strip|$FRAME$ "</v>
+        <v>PRODUCTION_REFITTING_FILTER:0 "Nachrüstung"</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C264" s="1" t="str">
         <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_DESC:1 "Convert from stockpile verwendet §Houtdated equipment§! oder §Hcaptured equipment§! innerhalb des Lagerbestands und wandelt sie in modifizierte Fahrzeuge um, die von der aktuellen Produktionslinie zu reduzierten Kosten angefordert werden. Dies wird so lange fortgesetzt, bis das Lager leer ist."</v>
+        <v>PRODUCTION_FILTER_CLICK_TO_HIDE:0 "§GKlick§! zum §Ausblenden§! dieser gesamten Kategorie."</v>
       </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
-        <v> PRODUCTION_LINE_CONVERT_DESC:1 "Convert from stockpile verwendet §Houtdated equipment§! oder §Hcaptured equipment§! innerhalb des Lagerbestands und wandelt sie in modifizierte Fahrzeuge um, die von der aktuellen Produktionslinie zu reduzierten Kosten angefordert werden. Dies wird so lange fortgesetzt, bis das Lager leer ist."</v>
+        <v>PRODUCTION_FILTER_CLICK_TO_HIDE:0 "§GKlick§! zum §Ausblenden§! dieser gesamten Kategorie."</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C265" s="1" t="str">
         <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_SPEED_TOTAL:1 "Geschwindigkeit der Umwandlung: §G+§!$SPD|G%0$"</v>
+        <v>PRODUCTION_FILTER_CLICK_TO_SHOW:0 "§GKlick§! zum §Einblenden§! der gesamten Kategorie."</v>
       </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
-        <v> PRODUCTION_LINE_CONVERT_SPEED_TOTAL:1 "Geschwindigkeit der Umwandlung: §G+§!$SPD|G%0$"</v>
+        <v>PRODUCTION_FILTER_CLICK_TO_SHOW:0 "§GKlick§! zum §Einblenden§! der gesamten Kategorie."</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C266" s="1" t="str">
         <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_SPEED_BASE:1 "Basis: $VAL|=+%0$"</v>
+        <v>PRODUCTION_FILTER_SHIFTCLICK:1 "\n§GShift+Klick§! zum §Ausblenden§! von allem anderen."</v>
       </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
-        <v> PRODUCTION_LINE_CONVERT_SPEED_BASE:1 "Basis: $VAL|=+%0$"</v>
+        <v>PRODUCTION_FILTER_SHIFTCLICK:1 "\n§GShift+Klick§! zum §Ausblenden§! von allem anderen."</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C267" s="1" t="str">
         <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_RES_NEED:0 "Benötigte Ressourcen für die Umwandlung von $NAME|Y$:"</v>
+        <v>PRODUCTION_FILTER_SHIFTCLICK_AGAIN:0 "\n§GShift+Klick§! um §Einblenden§! alles wieder einzublenden."</v>
       </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
-        <v> PRODUCTION_LINE_CONVERT_RES_NEED:0 "Benötigte Ressourcen für die Umwandlung von $NAME|Y$:"</v>
+        <v>PRODUCTION_FILTER_SHIFTCLICK_AGAIN:0 "\n§GShift+Klick§! um §Einblenden§! alles wieder einzublenden."</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C268" s="1" t="str">
         <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v> PRODUCTION_LINE_CONVERT_RES_NEED_ENTRY:1 "\n £resources_strip|$FRAME$: ($NEW|Y0$ - $OLD|G0$) = $SUM|R0$"</v>
+        <v>PRODUCTION_FILTER_RIGHTCLICK:0 "\n§Rechtsklick§! um alles aus dieser Kategorie auszublenden."</v>
       </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
-        <v> PRODUCTION_LINE_CONVERT_RES_NEED_ENTRY:1 "\n £resources_strip|$FRAME$: ($NEW|Y0$ - $OLD|G0$) = $SUM|R0$"</v>
+        <v>PRODUCTION_FILTER_RIGHTCLICK:0 "\n§Rechtsklick§! um alles aus dieser Kategorie auszublenden."</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C269" s="1" t="str">
         <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v> PRODUCTION_LINE_SHIP_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Schiff zugewiesen. §GKlicke§! auf die Schaltfläche Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+        <v>PRODUCTION_FILTER_ARMS_FACTORIES:0 "Militärische Fabriken verwendet"</v>
       </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
-        <v> PRODUCTION_LINE_SHIP_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Schiff zugewiesen. §GKlicke§! auf die Schaltfläche Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+        <v>PRODUCTION_FILTER_ARMS_FACTORIES:0 "Militärische Fabriken verwendet"</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C270" s="1" t="str">
         <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v> PRODUCTION_LINE_RAILWAY_GUN_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Eisenbahngeschütz zugewiesen. §GKlick§! Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+        <v>PRODUCTION_FILTER_DOCKYARDS:0 "Verwendete Marinewerften"</v>
       </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
-        <v> PRODUCTION_LINE_RAILWAY_GUN_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Eisenbahngeschütz zugewiesen. §GKlick§! Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+        <v>PRODUCTION_FILTER_DOCKYARDS:0 "Verwendete Marinewerften"</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="C271" s="1" t="str">
         <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL_SIMPLE:0 "§HLicense production§!: $VALUE|+%$"</v>
+        <v>""</v>
       </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL_SIMPLE:0 "§HLicense production§!: $VALUE|+%$"</v>
+        <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="C272" s="1" t="str">
         <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL:0 "§HLizenz Produktionsgeschwindigkeit§!\nGesamt: $WERT|+%$\nAusfall:"</v>
+        <v>""</v>
       </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL:0 "§HLizenz Produktionsgeschwindigkeit§!\nGesamt: $WERT|+%$\nAusfall:"</v>
+        <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C273" s="1" t="str">
         <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_TECH_SPEED_REDUCTION:1 "\n§YTechnologieunterschied§!:\n Basis: $BASE|+%$\n Geänderte Summe: $TOTAL|+%$"</v>
+        <v>INTEL_CIVILIAN_FACTORIES_USED_ON_TRADE:0 "Geschätzte zivile Fabriken, die für den Handel genutzt werden"</v>
       </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
-        <v> LICENSED_EQUIPMENT_TECH_SPEED_REDUCTION:1 "\n§YTechnologieunterschied§!:\n Basis: $BASE|+%$\n Geänderte Summe: $TOTAL|+%$"</v>
+        <v>INTEL_CIVILIAN_FACTORIES_USED_ON_TRADE:0 "Geschätzte zivile Fabriken, die für den Handel genutzt werden"</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C274" s="1" t="str">
         <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_MODIFIER:1 "\n§YProduktionsmodifikatoren§!:\n Basis: §Yx0.60§!\n Geänderte Summe: $TOTAL|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_EQUIPMENT:0 "Geschätzte Militärfabriken, die für militärische Ausrüstungen verwendet werden"</v>
       </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_MODIFIER:1 "\n§YProduktionsmodifikatoren§!:\n Basis: §Yx0.60§!\n Geänderte Summe: $TOTAL|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_EQUIPMENT:0 "Geschätzte Militärfabriken, die für militärische Ausrüstungen verwendet werden"</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C275" s="1" t="str">
         <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_NOT_FACTION:0 "Nicht mit dem Lizenzgeber im Bunde: $WERT|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_ARMOR:0 "Geschätzte Militärische Fabriken für gepanzerte Fahrzeuge"</v>
       </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_NOT_FACTION:0 "Nicht mit dem Lizenzgeber im Bunde: $WERT|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_ARMOR:0 "Geschätzte Militärische Fabriken für gepanzerte Fahrzeuge"</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C276" s="1" t="str">
         <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_NO_LICENSE:0 "Keine aktive Lizenz: $WERT|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_AIR:0 "Geschätzte Militärische Fabriken für Flugzeuge"</v>
       </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
-        <v> LICENSED_EQUIPMENT_PRODUCTION_SPEED_NO_LICENSE:0 "Keine aktive Lizenz: $WERT|+%$"</v>
+        <v>INTEL_ARMS_FACTORIES_USED_ON_AIR:0 "Geschätzte Militärische Fabriken für Flugzeuge"</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C277" s="1" t="str">
         <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v> LICENSED_EQUIPMENT_UPGRADE_XP_COST_MODIFIER:0 "Lizenzierte Ausrüstung: $VAL$"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_CAPITAL:0 "Geschätzte Marinewerften für Großkampfschiffe"</v>
       </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
-        <v> LICENSED_EQUIPMENT_UPGRADE_XP_COST_MODIFIER:0 "Lizenzierte Ausrüstung: $VAL$"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_CAPITAL:0 "Geschätzte Marinewerften für Großkampfschiffe"</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C278" s="1" t="str">
         <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v> LICENSED_PURCHASE_CIC_COST:1 "§YLizenzkosten:§! £civ_factory $AMOUNT|Y$"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_SCREEN:0 "Schätzung der Marinewerften, die Bildschirmschiffe verwenden"</v>
       </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
-        <v> LICENSED_PURCHASE_CIC_COST:1 "§YLizenzkosten:§! £civ_factory $AMOUNT|Y$"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_SCREEN:0 "Schätzung der Marinewerften, die Bildschirmschiffe verwenden"</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C279" s="1" t="str">
         <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_REPAIRS_LABEL:0 "Reparatur-Warteschlange"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_OTHER:0 "Geschätzte Marinewerften für andere Schiffe"</v>
       </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
-        <v> PRODUCTION_NAVAL_REPAIRS_LABEL:0 "Reparatur-Warteschlange"</v>
+        <v>INTEL_DOCKYARDS_USED_ON_OTHER:0 "Geschätzte Marinewerften für andere Schiffe"</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="C280" s="1" t="str">
         <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST:0 "Schiff-Namen"</v>
+        <v>""</v>
       </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST:0 "Schiff-Namen"</v>
+        <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="C281" s="1" t="str">
         <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v> PRODUCTION_RAILWAY_GUN_NAME_LIST:0 "Eisenbahngeschütz-Namen"</v>
+        <v>""</v>
       </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
-        <v> PRODUCTION_RAILWAY_GUN_NAME_LIST:0 "Eisenbahngeschütz-Namen"</v>
+        <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C282" s="1" t="str">
         <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_FALLBACK:0 "Schiffsnamen"</v>
+        <v>PRODUCTION_DRAG_N_DROP:0 "§GZiehen und ablegen§! um die §YPriorität§! zu ändern."</v>
       </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_FALLBACK:0 "Schiffsnamen"</v>
+        <v>PRODUCTION_DRAG_N_DROP:0 "§GZiehen und ablegen§! um die §YPriorität§! zu ändern."</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C283" s="1" t="str">
         <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v> PRODUCTION_RAILWAY_GUN_NAME_LIST_BUTTON_FALLBACK:0 "Eisenbahngeschütz-Namen"</v>
+        <v>PRODUCTION_COLLAPSE:2 "§GKlick§! zum Zusammenklappen.\n§GStrg + Klick§! zum Zusammenklappen aller dieser Kategorie.\n§GShift + Klick§! zum Zusammenklappen aller Produktionslinien."</v>
       </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
-        <v> PRODUCTION_RAILWAY_GUN_NAME_LIST_BUTTON_FALLBACK:0 "Eisenbahngeschütz-Namen"</v>
+        <v>PRODUCTION_COLLAPSE:2 "§GKlick§! zum Zusammenklappen.\n§GStrg + Klick§! zum Zusammenklappen aller dieser Kategorie.\n§GShift + Klick§! zum Zusammenklappen aller Produktionslinien."</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C284" s="1" t="str">
         <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_EMPTY_NOT_ALLOWED:0 "§Leere Namen sind nicht erlaubt!"</v>
+        <v>PRODUCTION_EXPAND:2 "§GKlick§! zum Erweitern.\n§GStrg + Klick§! zum Erweitern aller dieser Kategorie.\n§GShift + Klick§! zum Erweitern aller Produktionslinien."</v>
       </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_EMPTY_NOT_ALLOWED:0 "§Leere Namen sind nicht erlaubt!"</v>
+        <v>PRODUCTION_EXPAND:2 "§GKlick§! zum Erweitern.\n§GStrg + Klick§! zum Erweitern aller dieser Kategorie.\n§GShift + Klick§! zum Erweitern aller Produktionslinien."</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C285" s="1" t="str">
         <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_TOO_FEW_PRODUCED:0 "§Namen werden die Anzahl der Schiffe in der Produktionswarteschlange überschreiten."</v>
+        <v>PRODUCTION_FACTORY_SCALE_UP:0 "§GKlick§! zum Hochskalieren auf §Y$SCALE$x§!-Ansicht."</v>
       </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_TOO_FEW_PRODUCED:0 "§Namen werden die Anzahl der Schiffe in der Produktionswarteschlange überschreiten."</v>
+        <v>PRODUCTION_FACTORY_SCALE_UP:0 "§GKlick§! zum Hochskalieren auf §Y$SCALE$x§!-Ansicht."</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C286" s="1" t="str">
         <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_REMOVE:0 "§Klick§! auf §Name entfernen§!"</v>
+        <v>PRODUCTION_FACTORY_SCALE_DOWN:0 "§GKlick§! zum Verkleinern auf die Ansicht §Y1x§!"</v>
       </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_REMOVE:0 "§Klick§! auf §Name entfernen§!"</v>
+        <v>PRODUCTION_FACTORY_SCALE_DOWN:0 "§GKlick§! zum Verkleinern auf die Ansicht §Y1x§!"</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C287" s="1" t="str">
         <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_NAME_RESERVED:0 "$NAME|H$ ist bereits in Gebrauch."</v>
+        <v>PRODUCTION_ADD_FACTORIES_CLICK:0 "§GKlick§! zum Hinzufügen von §Y+1§!\n§GStrg + Klick§! zum Hinzufügen von §Y+5§!\n§GShift + Klick§! zum Hinzufügen von §Y+10§!"</v>
       </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_NAME_RESERVED:0 "$NAME|H$ ist bereits in Gebrauch."</v>
+        <v>PRODUCTION_ADD_FACTORIES_CLICK:0 "§GKlick§! zum Hinzufügen von §Y+1§!\n§GStrg + Klick§! zum Hinzufügen von §Y+5§!\n§GShift + Klick§! zum Hinzufügen von §Y+10§!"</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C288" s="1" t="str">
         <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_ADD_NAME:0 "§GKlick§! zum Benennen des nächsten $EQUIPMENT|H$ aus dieser Zeile $NAME|H$."</v>
+        <v>PRODUCTION_SUB_FACTORIES_CLICK:0 "§GClick§! zum Subtrahieren §Y1§!\n§GCtrl + Click§! zum Subtrahieren §Y5§!\n§GShift + Click§! zum Subtrahieren §Y10§!"</v>
       </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_ADD_NAME:0 "§GKlick§! zum Benennen des nächsten $EQUIPMENT|H$ aus dieser Zeile $NAME|H$."</v>
+        <v>PRODUCTION_SUB_FACTORIES_CLICK:0 "§GClick§! zum Subtrahieren §Y1§!\n§GCtrl + Click§! zum Subtrahieren §Y5§!\n§GShift + Click§! zum Subtrahieren §Y10§!"</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C289" s="1" t="str">
         <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_NAME:0 "Das nächste $EQUIPMENT|H$ aus dieser Zeile erhält den Namen $NAME|H$."</v>
+        <v>PRODUCTION_ADD_1:0 "§GKlick§! zum Addieren §Y+1§!"</v>
       </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_NAME:0 "Das nächste $EQUIPMENT|H$ aus dieser Zeile erhält den Namen $NAME|H$."</v>
+        <v>PRODUCTION_ADD_1:0 "§GKlick§! zum Addieren §Y+1§!"</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C290" s="1" t="str">
         <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_CLICK:0 "§Klick§! zum Ändern des Namens."</v>
+        <v>PRODUCTION_ADD_5:0 "§GCtrl + Klick§! zum Addieren §Y+5§!"</v>
       </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
-        <v> PRODUCTION_NAVAL_NAME_LIST_BUTTON_CLICK:0 "§Klick§! zum Ändern des Namens."</v>
+        <v>PRODUCTION_ADD_5:0 "§GCtrl + Klick§! zum Addieren §Y+5§!"</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C291" s="1" t="str">
         <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_TOTAL_COSTS:0 "§Gesamtkosten für $COUNT|T$ Schiffe:§!\n"</v>
+        <v>PRODUCTION_ADD_10:0 "§GShift + Klick§! zum Addieren §Y+10§!"</v>
       </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
-        <v> PRODUCTION_SHIP_REFIT_TOTAL_COSTS:0 "§Gesamtkosten für $COUNT|T$ Schiffe:§!\n"</v>
+        <v>PRODUCTION_ADD_10:0 "§GShift + Klick§! zum Addieren §Y+10§!"</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C292" s="1" t="str">
         <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_BASE_ICCOST:1 "Rumpf: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_1:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
       </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
-        <v> PRODUCTION_SHIP_REFIT_BASE_ICCOST:1 "Rumpf: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_1:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C293" s="1" t="str">
         <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_BUILD_ICCOST:0 "Neue Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_5:0 "§GCtrl + Klick§! zum Subtrahieren von §Y5§!"</v>
       </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_BUILD_ICCOST:0 "Neue Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_5:0 "§GCtrl + Klick§! zum Subtrahieren von §Y5§!"</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C294" s="1" t="str">
         <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_CONVERT_ICCOST:0 "Umgerüstete Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_10:0 "§GShift + Klick§! zum Subtrahieren §Y10§!"</v>
       </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_CONVERT_ICCOST:0 "Umgerüstete Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_SUB_10:0 "§GShift + Klick§! zum Subtrahieren §Y10§!"</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C295" s="1" t="str">
         <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_DISMANTLE_ICCOST:0 "Abgerissene Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_ADD_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Addieren §Y+1§!"</v>
       </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
-        <v> PRODUCTION_SHIP_REFIT_MODULE_DISMANTLE_ICCOST:0 "Abgerissene Module: $ICCOST|H2$"</v>
+        <v>PRODUCTION_ADD_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Addieren §Y+1§!"</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C296" s="1" t="str">
         <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_QUICKEST_TIME:0 "Bei maximaler Zuweisung von §HDockyards§! würde dies bis zu $DAYS|H$ Tage in Anspruch nehmen."</v>
+        <v>PRODUCTION_SUB_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
       </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
-        <v> PRODUCTION_SHIP_REFIT_QUICKEST_TIME:0 "Bei maximaler Zuweisung von §HDockyards§! würde dies bis zu $DAYS|H$ Tage in Anspruch nehmen."</v>
+        <v>PRODUCTION_SUB_NAVAL_FACTORIES_CLICK:0 "§GKlick§! zum Subtrahieren von §Y1§!"</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C297" s="1" t="str">
         <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_DIFF_HEADER:0 "§HEffects of Refitting§!"</v>
+        <v>PRODUCTION_CLICK_TO_APPEND_OR_INSERT:0 "§GKlick§! um eine neue Produktionslinie am Ende anzuhängen.\n§GShift + Klick§! um eine neue Produktionslinie an den Anfang zu setzen."</v>
       </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_DIFF_HEADER:0 "§HEffects of Refitting§!"</v>
+        <v>PRODUCTION_CLICK_TO_APPEND_OR_INSERT:0 "§GKlick§! um eine neue Produktionslinie am Ende anzuhängen.\n§GShift + Klick§! um eine neue Produktionslinie an den Anfang zu setzen."</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C298" s="1" t="str">
         <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_FROM_VARIANT_HEADER:0 "Von $VARIANT$ ($SHIP_COUNT|H$ ausgewählt)"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_STATE_NAME:0 "$STATE$ ($LVL|Y$)"</v>
       </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_FROM_VARIANT_HEADER:0 "Von $VARIANT$ ($SHIP_COUNT|H$ ausgewählt)"</v>
+        <v>PRODUCTION_NAVAL_DEPLOYMENT_STATE_NAME:0 "$STATE$ ($LVL|Y$)"</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C299" s="1" t="str">
         <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_NO_STAT_CHANGES:0 "keine Änderung der Werte"</v>
+        <v>PRODUCTION_LINE_CONVERT_NO_EQUIPMENT_IN_STOCK:0 "§RCurrently there is no equipment in stock that we could use to convert into: $VARIANT|H$§!"</v>
       </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_NO_STAT_CHANGES:0 "keine Änderung der Werte"</v>
+        <v>PRODUCTION_LINE_CONVERT_NO_EQUIPMENT_IN_STOCK:0 "§RCurrently there is no equipment in stock that we could use to convert into: $VARIANT|H$§!"</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C300" s="1" t="str">
         <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_MORE_VARIANTS:0 "und andere Ausrüstungsvarianten ($SHIP_COUNT|H$ ausgewählt)"</v>
+        <v>PRODUCTION_LINE_CONVERT_HEADER:0 "Umwandlung vom Lagerbestand"</v>
       </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
-        <v> PRODUCTION_SHIP_REFIT_TOOLTIP_MORE_VARIANTS:0 "und andere Ausrüstungsvarianten ($SHIP_COUNT|H$ ausgewählt)"</v>
+        <v>PRODUCTION_LINE_CONVERT_HEADER:0 "Umwandlung vom Lagerbestand"</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> PRODUCTION_TANK_REFIT_BASE_ICCOST:0 "Fahrgestell: $ICCOST|H2$"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION:0 "Reihenfolge der Umwandlung:"</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
-        <v> PRODUCTION_TANK_REFIT_BASE_ICCOST:0 "Fahrgestell: $ICCOST|H2$"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION:0 "Reihenfolge der Umwandlung:"</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C302" s="1" t="str">
         <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v> PRODUCTION_TANK_REFIT_QUICKEST_TIME:0 "Bei maximaler §HProduktionseffizienz§! wird jede zugewiesene Fabrik $NUM_UNITS_PER_TIME_PERIOD$ umsetzen."</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!) mit Kosten: "</v>
       </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
-        <v> PRODUCTION_TANK_REFIT_QUICKEST_TIME:0 "Bei maximaler §HProduktionseffizienz§! wird jede zugewiesene Fabrik $NUM_UNITS_PER_TIME_PERIOD$ umsetzen."</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!) mit Kosten: "</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C303" s="1" t="str">
         <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v> PRODUCTION_SUB_UNIT_FILTER:0 "Nur $SUBUNIT|H$ anzeigen ($COUNT|H$ entspricht)"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$ mit Kosten: "</v>
       </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
-        <v> PRODUCTION_SUB_UNIT_FILTER:0 "Nur $SUBUNIT|H$ anzeigen ($COUNT|H$ entspricht)"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$ mit Kosten: "</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C304" s="1" t="str">
         <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_ROLE_NO_FILTER:0 "Alle Rollen anzeigen"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!)"</v>
       </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
-        <v> PRODUCTION_EQUIPMENT_ROLE_NO_FILTER:0 "Alle Rollen anzeigen"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY:1 "$NUM|Y0$ von $VARIANT|G$ (§H$TYPE$§!)"</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> PRODUCTION_EQUIPMENT_ROLE_FILTER:0 "Nur Ausrüstungen mit der Rolle $ROLE|H$ anzeigen"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$"</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
-        <v> PRODUCTION_EQUIPMENT_ROLE_FILTER:0 "Nur Ausrüstungen mit der Rolle $ROLE|H$ anzeigen"</v>
+        <v>PRODUCTION_LINE_CONVERT_ORDER_OF_CONVERSION_FREE_ENTRY_NO_TYPE:0 "$NUM|Y0$ von $VARIANT|G$"</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D306" s="1"/>
+      <c r="A306" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C306" s="1" t="str">
+        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_RESOURCE_COST_ENTRY:0 "§H$NUM$§!£resources_strip|$FRAME$ "</v>
+      </c>
+      <c r="D306" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A306),"",C306)</f>
+        <v>PRODUCTION_LINE_CONVERT_RESOURCE_COST_ENTRY:0 "§H$NUM$§!£resources_strip|$FRAME$ "</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D307" s="1"/>
+      <c r="A307" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C307" s="1" t="str">
+        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_DESC:1 "Convert from stockpile verwendet §Houtdated equipment§! oder §Hcaptured equipment§! innerhalb des Lagerbestands und wandelt sie in modifizierte Fahrzeuge um, die von der aktuellen Produktionslinie zu reduzierten Kosten angefordert werden. Dies wird so lange fortgesetzt, bis das Lager leer ist."</v>
+      </c>
+      <c r="D307" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A307),"",C307)</f>
+        <v>PRODUCTION_LINE_CONVERT_DESC:1 "Convert from stockpile verwendet §Houtdated equipment§! oder §Hcaptured equipment§! innerhalb des Lagerbestands und wandelt sie in modifizierte Fahrzeuge um, die von der aktuellen Produktionslinie zu reduzierten Kosten angefordert werden. Dies wird so lange fortgesetzt, bis das Lager leer ist."</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D308" s="1"/>
+      <c r="A308" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C308" s="1" t="str">
+        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_SPEED_TOTAL:1 "Geschwindigkeit der Umwandlung: §G+§!$SPD|G%0$"</v>
+      </c>
+      <c r="D308" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A308),"",C308)</f>
+        <v>PRODUCTION_LINE_CONVERT_SPEED_TOTAL:1 "Geschwindigkeit der Umwandlung: §G+§!$SPD|G%0$"</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D309" s="1"/>
+      <c r="A309" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C309" s="1" t="str">
+        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_SPEED_BASE:1 "Basis: $VAL|=+%0$"</v>
+      </c>
+      <c r="D309" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A309),"",C309)</f>
+        <v>PRODUCTION_LINE_CONVERT_SPEED_BASE:1 "Basis: $VAL|=+%0$"</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D310" s="1"/>
+      <c r="A310" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C310" s="1" t="str">
+        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_RES_NEED:0 "Benötigte Ressourcen für die Umwandlung von $NAME|Y$:"</v>
+      </c>
+      <c r="D310" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A310),"",C310)</f>
+        <v>PRODUCTION_LINE_CONVERT_RES_NEED:0 "Benötigte Ressourcen für die Umwandlung von $NAME|Y$:"</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D311" s="1"/>
+      <c r="A311" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C311" s="1" t="str">
+        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
+        <v>PRODUCTION_LINE_CONVERT_RES_NEED_ENTRY:1 "\n £resources_strip|$FRAME$: ($NEW|Y0$ - $OLD|G0$) = $SUM|R0$"</v>
+      </c>
+      <c r="D311" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A311),"",C311)</f>
+        <v>PRODUCTION_LINE_CONVERT_RES_NEED_ENTRY:1 "\n £resources_strip|$FRAME$: ($NEW|Y0$ - $OLD|G0$) = $SUM|R0$"</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D312" s="1"/>
+      <c r="A312" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C312" s="1" t="str">
+        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
+        <v>PRODUCTION_LINE_SHIP_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Schiff zugewiesen. §GKlicke§! auf die Schaltfläche Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+      </c>
+      <c r="D312" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A312),"",C312)</f>
+        <v>PRODUCTION_LINE_SHIP_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Schiff zugewiesen. §GKlicke§! auf die Schaltfläche Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D313" s="1"/>
+      <c r="A313" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C313" s="1" t="str">
+        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
+        <v>PRODUCTION_LINE_RAILWAY_GUN_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Eisenbahngeschütz zugewiesen. §GKlick§! Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+      </c>
+      <c r="D313" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A313),"",C313)</f>
+        <v>PRODUCTION_LINE_RAILWAY_GUN_NAME_ALLOCATE:0 "Dieser Name ist noch keinem anderen Eisenbahngeschütz zugewiesen. §GKlick§! Hinzufügen, um diesen Namen dieser Produktionswarteschlange zuzuordnen."</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C314" s="1" t="str">
+        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL_SIMPLE:0 "§HLicense production§!: $VALUE|+%$"</v>
+      </c>
+      <c r="D314" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A314),"",C314)</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL_SIMPLE:0 "§HLicense production§!: $VALUE|+%$"</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D315" s="1"/>
+      <c r="A315" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C315" s="1" t="str">
+        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL:0 "§HLizenz Produktionsgeschwindigkeit§!\nGesamt: $WERT|+%$\nAusfall:"</v>
+      </c>
+      <c r="D315" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A315),"",C315)</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_TOTAL:0 "§HLizenz Produktionsgeschwindigkeit§!\nGesamt: $WERT|+%$\nAusfall:"</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D316" s="1"/>
+      <c r="A316" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C316" s="1" t="str">
+        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_TECH_SPEED_REDUCTION:1 "\n§YTechnologieunterschied§!:\n Basis: $BASE|+%$\n Geänderte Summe: $TOTAL|+%$"</v>
+      </c>
+      <c r="D316" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A316),"",C316)</f>
+        <v>LICENSED_EQUIPMENT_TECH_SPEED_REDUCTION:1 "\n§YTechnologieunterschied§!:\n Basis: $BASE|+%$\n Geänderte Summe: $TOTAL|+%$"</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D317" s="1"/>
+      <c r="A317" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C317" s="1" t="str">
+        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_MODIFIER:1 "\n§YProduktionsmodifikatoren§!:\n Basis: §Yx0.60§!\n Geänderte Summe: $TOTAL|+%$"</v>
+      </c>
+      <c r="D317" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A317),"",C317)</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_MODIFIER:1 "\n§YProduktionsmodifikatoren§!:\n Basis: §Yx0.60§!\n Geänderte Summe: $TOTAL|+%$"</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D318" s="1"/>
+      <c r="A318" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C318" s="1" t="str">
+        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_NOT_FACTION:0 "Nicht mit dem Lizenzgeber im Bunde: $WERT|+%$"</v>
+      </c>
+      <c r="D318" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A318),"",C318)</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_NOT_FACTION:0 "Nicht mit dem Lizenzgeber im Bunde: $WERT|+%$"</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D319" s="1"/>
+      <c r="A319" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C319" s="1" t="str">
+        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_NO_LICENSE:0 "Keine aktive Lizenz: $WERT|+%$"</v>
+      </c>
+      <c r="D319" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A319),"",C319)</f>
+        <v>LICENSED_EQUIPMENT_PRODUCTION_SPEED_NO_LICENSE:0 "Keine aktive Lizenz: $WERT|+%$"</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D320" s="1"/>
+      <c r="A320" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C320" s="1" t="str">
+        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
+        <v>LICENSED_EQUIPMENT_UPGRADE_XP_COST_MODIFIER:0 "Lizenzierte Ausrüstung: $VAL$"</v>
+      </c>
+      <c r="D320" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A320),"",C320)</f>
+        <v>LICENSED_EQUIPMENT_UPGRADE_XP_COST_MODIFIER:0 "Lizenzierte Ausrüstung: $VAL$"</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D321" s="1"/>
+      <c r="A321" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C321" s="1" t="str">
+        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
+        <v>LICENSED_PURCHASE_CIC_COST:1 "§YLizenzkosten:§! £civ_factory $AMOUNT|Y$"</v>
+      </c>
+      <c r="D321" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A321),"",C321)</f>
+        <v>LICENSED_PURCHASE_CIC_COST:1 "§YLizenzkosten:§! £civ_factory $AMOUNT|Y$"</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D322" s="1"/>
+      <c r="A322" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C322" s="1" t="str">
+        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_REPAIRS_LABEL:0 "Reparatur-Warteschlange"</v>
+      </c>
+      <c r="D322" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A322),"",C322)</f>
+        <v>PRODUCTION_NAVAL_REPAIRS_LABEL:0 "Reparatur-Warteschlange"</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D323" s="1"/>
+      <c r="A323" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C323" s="1" t="str">
+        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST:0 "Schiff-Namen"</v>
+      </c>
+      <c r="D323" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A323),"",C323)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST:0 "Schiff-Namen"</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D324" s="1"/>
+      <c r="A324" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C324" s="1" t="str">
+        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
+        <v>PRODUCTION_RAILWAY_GUN_NAME_LIST:0 "Eisenbahngeschütz-Namen"</v>
+      </c>
+      <c r="D324" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A324),"",C324)</f>
+        <v>PRODUCTION_RAILWAY_GUN_NAME_LIST:0 "Eisenbahngeschütz-Namen"</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D325" s="1"/>
+      <c r="A325" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C325" s="1" t="str">
+        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_FALLBACK:0 "Schiffsnamen"</v>
+      </c>
+      <c r="D325" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A325),"",C325)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_FALLBACK:0 "Schiffsnamen"</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C326" s="1" t="str">
+        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
+        <v>PRODUCTION_RAILWAY_GUN_NAME_LIST_BUTTON_FALLBACK:0 "Eisenbahngeschütz-Namen"</v>
+      </c>
+      <c r="D326" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A326),"",C326)</f>
+        <v>PRODUCTION_RAILWAY_GUN_NAME_LIST_BUTTON_FALLBACK:0 "Eisenbahngeschütz-Namen"</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D327" s="1"/>
+      <c r="A327" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C327" s="1" t="str">
+        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_EMPTY_NOT_ALLOWED:0 "§Leere Namen sind nicht erlaubt!"</v>
+      </c>
+      <c r="D327" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A327),"",C327)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_EMPTY_NOT_ALLOWED:0 "§Leere Namen sind nicht erlaubt!"</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D328" s="1"/>
+      <c r="A328" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C328" s="1" t="str">
+        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_TOO_FEW_PRODUCED:0 "§Namen werden die Anzahl der Schiffe in der Produktionswarteschlange überschreiten."</v>
+      </c>
+      <c r="D328" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A328),"",C328)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_TOO_FEW_PRODUCED:0 "§Namen werden die Anzahl der Schiffe in der Produktionswarteschlange überschreiten."</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D329" s="1"/>
+      <c r="A329" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C329" s="1" t="str">
+        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_REMOVE:0 "§Klick§! auf §Name entfernen§!"</v>
+      </c>
+      <c r="D329" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A329),"",C329)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_REMOVE:0 "§Klick§! auf §Name entfernen§!"</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D330" s="1"/>
+      <c r="A330" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C330" s="1" t="str">
+        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_NAME_RESERVED:0 "$NAME|H$ ist bereits in Gebrauch."</v>
+      </c>
+      <c r="D330" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A330),"",C330)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_NAME_RESERVED:0 "$NAME|H$ ist bereits in Gebrauch."</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D331" s="1"/>
+      <c r="A331" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C331" s="1" t="str">
+        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_ADD_NAME:0 "§GKlick§! zum Benennen des nächsten $EQUIPMENT|H$ aus dieser Zeile $NAME|H$."</v>
+      </c>
+      <c r="D331" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A331),"",C331)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_ADD_NAME:0 "§GKlick§! zum Benennen des nächsten $EQUIPMENT|H$ aus dieser Zeile $NAME|H$."</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D332" s="1"/>
+      <c r="A332" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C332" s="1" t="str">
+        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_NAME:0 "Das nächste $EQUIPMENT|H$ aus dieser Zeile erhält den Namen $NAME|H$."</v>
+      </c>
+      <c r="D332" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A332),"",C332)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_NAME:0 "Das nächste $EQUIPMENT|H$ aus dieser Zeile erhält den Namen $NAME|H$."</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D333" s="1"/>
+      <c r="A333" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C333" s="1" t="str">
+        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_CLICK:0 "§Klick§! zum Ändern des Namens."</v>
+      </c>
+      <c r="D333" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A333),"",C333)</f>
+        <v>PRODUCTION_NAVAL_NAME_LIST_BUTTON_CLICK:0 "§Klick§! zum Ändern des Namens."</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D334" s="1"/>
+      <c r="A334" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C334" s="1" t="str">
+        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_TOTAL_COSTS:0 "§Gesamtkosten für $COUNT|T$ Schiffe:§!\n"</v>
+      </c>
+      <c r="D334" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A334),"",C334)</f>
+        <v>PRODUCTION_SHIP_REFIT_TOTAL_COSTS:0 "§Gesamtkosten für $COUNT|T$ Schiffe:§!\n"</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D335" s="1"/>
+      <c r="A335" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C335" s="1" t="str">
+        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_BASE_ICCOST:1 "Rumpf: $ICCOST|H2$"</v>
+      </c>
+      <c r="D335" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A335),"",C335)</f>
+        <v>PRODUCTION_SHIP_REFIT_BASE_ICCOST:1 "Rumpf: $ICCOST|H2$"</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D336" s="1"/>
+      <c r="A336" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C336" s="1" t="str">
+        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_BUILD_ICCOST:0 "Neue Module: $ICCOST|H2$"</v>
+      </c>
+      <c r="D336" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A336),"",C336)</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_BUILD_ICCOST:0 "Neue Module: $ICCOST|H2$"</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D337" s="1"/>
+      <c r="A337" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C337" s="1" t="str">
+        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_CONVERT_ICCOST:0 "Umgerüstete Module: $ICCOST|H2$"</v>
+      </c>
+      <c r="D337" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A337),"",C337)</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_CONVERT_ICCOST:0 "Umgerüstete Module: $ICCOST|H2$"</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D338" s="1"/>
+      <c r="A338" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C338" s="1" t="str">
+        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_DISMANTLE_ICCOST:0 "Abgerissene Module: $ICCOST|H2$"</v>
+      </c>
+      <c r="D338" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A338),"",C338)</f>
+        <v>PRODUCTION_SHIP_REFIT_MODULE_DISMANTLE_ICCOST:0 "Abgerissene Module: $ICCOST|H2$"</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D339" s="1"/>
+      <c r="A339" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C339" s="1" t="str">
+        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_QUICKEST_TIME:0 "Bei maximaler Zuweisung von §HDockyards§! würde dies bis zu $DAYS|H$ Tage in Anspruch nehmen."</v>
+      </c>
+      <c r="D339" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A339),"",C339)</f>
+        <v>PRODUCTION_SHIP_REFIT_QUICKEST_TIME:0 "Bei maximaler Zuweisung von §HDockyards§! würde dies bis zu $DAYS|H$ Tage in Anspruch nehmen."</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D340" s="1"/>
+      <c r="A340" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C340" s="1" t="str">
+        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_DIFF_HEADER:0 "§HEffects of Refitting§!"</v>
+      </c>
+      <c r="D340" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A340),"",C340)</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_DIFF_HEADER:0 "§HEffects of Refitting§!"</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D341" s="1"/>
+      <c r="A341" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C341" s="1" t="str">
+        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_FROM_VARIANT_HEADER:0 "Von $VARIANT$ ($SHIP_COUNT|H$ ausgewählt)"</v>
+      </c>
+      <c r="D341" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A341),"",C341)</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_FROM_VARIANT_HEADER:0 "Von $VARIANT$ ($SHIP_COUNT|H$ ausgewählt)"</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D342" s="1"/>
+      <c r="A342" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C342" s="1" t="str">
+        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_NO_STAT_CHANGES:0 "keine Änderung der Werte"</v>
+      </c>
+      <c r="D342" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A342),"",C342)</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_NO_STAT_CHANGES:0 "keine Änderung der Werte"</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D343" s="1"/>
+      <c r="A343" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C343" s="1" t="str">
+        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_MORE_VARIANTS:0 "und andere Ausrüstungsvarianten ($SHIP_COUNT|H$ ausgewählt)"</v>
+      </c>
+      <c r="D343" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A343),"",C343)</f>
+        <v>PRODUCTION_SHIP_REFIT_TOOLTIP_MORE_VARIANTS:0 "und andere Ausrüstungsvarianten ($SHIP_COUNT|H$ ausgewählt)"</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D344" s="1"/>
+      <c r="A344" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C344" s="1" t="str">
+        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
+        <v>PRODUCTION_TANK_REFIT_BASE_ICCOST:0 "Fahrgestell: $ICCOST|H2$"</v>
+      </c>
+      <c r="D344" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A344),"",C344)</f>
+        <v>PRODUCTION_TANK_REFIT_BASE_ICCOST:0 "Fahrgestell: $ICCOST|H2$"</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D345" s="1"/>
+      <c r="A345" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C345" s="1" t="str">
+        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
+        <v>PRODUCTION_TANK_REFIT_QUICKEST_TIME:0 "Bei maximaler §HProduktionseffizienz§! wird jede zugewiesene Fabrik $NUM_UNITS_PER_TIME_PERIOD$ umsetzen."</v>
+      </c>
+      <c r="D345" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A345),"",C345)</f>
+        <v>PRODUCTION_TANK_REFIT_QUICKEST_TIME:0 "Bei maximaler §HProduktionseffizienz§! wird jede zugewiesene Fabrik $NUM_UNITS_PER_TIME_PERIOD$ umsetzen."</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D346" s="1"/>
+      <c r="A346" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C346" s="1" t="str">
+        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
+        <v>PRODUCTION_SUB_UNIT_FILTER:0 "Nur $SUBUNIT|H$ anzeigen ($COUNT|H$ entspricht)"</v>
+      </c>
+      <c r="D346" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A346),"",C346)</f>
+        <v>PRODUCTION_SUB_UNIT_FILTER:0 "Nur $SUBUNIT|H$ anzeigen ($COUNT|H$ entspricht)"</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D347" s="1"/>
+      <c r="A347" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C347" s="1" t="str">
+        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
+        <v>PRODUCTION_EQUIPMENT_ROLE_NO_FILTER:0 "Alle Rollen anzeigen"</v>
+      </c>
+      <c r="D347" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A347),"",C347)</f>
+        <v>PRODUCTION_EQUIPMENT_ROLE_NO_FILTER:0 "Alle Rollen anzeigen"</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D348" s="1"/>
+      <c r="A348" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C348" s="1" t="str">
+        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
+        <v>PRODUCTION_EQUIPMENT_ROLE_FILTER:0 "Nur Ausrüstungen mit der Rolle $ROLE|H$ anzeigen"</v>
+      </c>
+      <c r="D348" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A348),"",C348)</f>
+        <v>PRODUCTION_EQUIPMENT_ROLE_FILTER:0 "Nur Ausrüstungen mit der Rolle $ROLE|H$ anzeigen"</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D349" s="1"/>
+      <c r="A349" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C349" s="1" t="str">
+        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
+        <v>PRODUCTION_COST_MODIFIERS:  "§Y£production_cost£Produktionskosten geändert durch:§! "</v>
+      </c>
+      <c r="D349" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A349),"",C349)</f>
+        <v>PRODUCTION_COST_MODIFIERS:  "§Y£production_cost£Produktionskosten geändert durch:§! "</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D350" s="1"/>
+      <c r="A350" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C350" s="1" t="str">
+        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
+        <v>PRODUCTION_COST_MODIFIER_ITEM:  "$REASON$: $VALUE|-%$ "</v>
+      </c>
+      <c r="D350" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A350),"",C350)</f>
+        <v>PRODUCTION_COST_MODIFIER_ITEM:  "$REASON$: $VALUE|-%$ "</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D351" s="1"/>
+      <c r="A351" s="2"/>
+      <c r="C351" s="1" t="str">
+        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D351" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A351),"",C351)</f>
+        <v/>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D352" s="1"/>
+      <c r="A352" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C352" s="1" t="str">
+        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
+        <v>BONUS_PRODUCTION_COST_FACTOR:  "Produktionskosten "</v>
+      </c>
+      <c r="D352" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A352),"",C352)</f>
+        <v>BONUS_PRODUCTION_COST_FACTOR:  "Produktionskosten "</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D353" s="1"/>
+      <c r="A353" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C353" s="1" t="str">
+        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
+        <v>BONUS_PRODUCTION_CAPACITY_FACTOR:  "Produktionsleistung "</v>
+      </c>
+      <c r="D353" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A353),"",C353)</f>
+        <v>BONUS_PRODUCTION_CAPACITY_FACTOR:  "Produktionsleistung "</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D354" s="1"/>
+      <c r="A354" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C354" s="1" t="str">
+        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
+        <v>BONUS_PRODUCTION_EFFICIENCY_CAP_FACTOR:  "Produktionseffizienzobergrenze "</v>
+      </c>
+      <c r="D354" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A354),"",C354)</f>
+        <v>BONUS_PRODUCTION_EFFICIENCY_CAP_FACTOR:  "Produktionseffizienzobergrenze "</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D355" s="1"/>
+      <c r="A355" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C355" s="1" t="str">
+        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
+        <v>BONUS_PRODUCTION_EFFICIENCY_GAIN_FACTOR:  "Produktionseffizienzgewinn "</v>
+      </c>
+      <c r="D355" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A355),"",C355)</f>
+        <v>BONUS_PRODUCTION_EFFICIENCY_GAIN_FACTOR:  "Produktionseffizienzgewinn "</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="1"/>
+      <c r="A356" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C356" s="1" t="str">
+        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
+        <v>BONUS_PRODUCTION_RESOURCE_NEED_FACTOR:  "Produktionsressourcenbedarf "</v>
+      </c>
+      <c r="D356" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A356),"",C356)</f>
+        <v>BONUS_PRODUCTION_RESOURCE_NEED_FACTOR:  "Produktionsressourcenbedarf "</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D357" s="1"/>
+      <c r="A357" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C357" s="1" t="str">
+        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
+        <v>BONUS_PRODUCTION_RESOURCE_PENALTY_FACTOR:  "Produktionsressourcenstrafe "</v>
+      </c>
+      <c r="D357" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A357),"",C357)</f>
+        <v>BONUS_PRODUCTION_RESOURCE_PENALTY_FACTOR:  "Produktionsressourcenstrafe "</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D358" s="1"/>
+      <c r="A358" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C358" s="1" t="str">
+        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
+        <v>BONUS_PRODUCTION_CONVERSION_SPEED_FACTOR:  "Produktionskonvertierungsgeschwindigkeit"</v>
+      </c>
+      <c r="D358" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A358),"",C358)</f>
+        <v>BONUS_PRODUCTION_CONVERSION_SPEED_FACTOR:  "Produktionskonvertierungsgeschwindigkeit"</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D359" s="1"/>
@@ -7453,6 +8187,165 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D499" s="1"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D552" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
